--- a/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/12/flowCurve.xlsx
+++ b/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/12/flowCurve.xlsx
@@ -455,10 +455,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1325.446505524577</v>
+        <v>486.723795025476</v>
       </c>
       <c r="C2" t="n">
-        <v>1325446505.524577</v>
+        <v>486723795.025476</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>0.002</v>
       </c>
       <c r="B3" t="n">
-        <v>1418.252502838655</v>
+        <v>625.4609062889903</v>
       </c>
       <c r="C3" t="n">
-        <v>1418252502.838655</v>
+        <v>625460906.2889903</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>0.004</v>
       </c>
       <c r="B4" t="n">
-        <v>1459.1143622863</v>
+        <v>695.3622902700509</v>
       </c>
       <c r="C4" t="n">
-        <v>1459114362.2863</v>
+        <v>695362290.270051</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>0.006</v>
       </c>
       <c r="B5" t="n">
-        <v>1485.992631381696</v>
+        <v>744.4258211259687</v>
       </c>
       <c r="C5" t="n">
-        <v>1485992631.381696</v>
+        <v>744425821.1259687</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>0.008</v>
       </c>
       <c r="B6" t="n">
-        <v>1506.155283996593</v>
+        <v>782.8856965461194</v>
       </c>
       <c r="C6" t="n">
-        <v>1506155283.996593</v>
+        <v>782885696.5461195</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>0.01</v>
       </c>
       <c r="B7" t="n">
-        <v>1522.341172177447</v>
+        <v>814.8095506750542</v>
       </c>
       <c r="C7" t="n">
-        <v>1522341172.177447</v>
+        <v>814809550.6750542</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.012</v>
       </c>
       <c r="B8" t="n">
-        <v>1535.887840661968</v>
+        <v>842.2593634576672</v>
       </c>
       <c r="C8" t="n">
-        <v>1535887840.661968</v>
+        <v>842259363.4576672</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>0.014</v>
       </c>
       <c r="B9" t="n">
-        <v>1547.551190047663</v>
+        <v>866.4348086052318</v>
       </c>
       <c r="C9" t="n">
-        <v>1547551190.047663</v>
+        <v>866434808.6052318</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>0.016</v>
       </c>
       <c r="B10" t="n">
-        <v>1557.801078678482</v>
+        <v>888.0996378888244</v>
       </c>
       <c r="C10" t="n">
-        <v>1557801078.678482</v>
+        <v>888099637.8888245</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>0.018</v>
       </c>
       <c r="B11" t="n">
-        <v>1566.94993317343</v>
+        <v>907.7721464773283</v>
       </c>
       <c r="C11" t="n">
-        <v>1566949933.173429</v>
+        <v>907772146.4773283</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>0.02</v>
       </c>
       <c r="B12" t="n">
-        <v>1575.216238148604</v>
+        <v>925.8212774058165</v>
       </c>
       <c r="C12" t="n">
-        <v>1575216238.148604</v>
+        <v>925821277.4058166</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>0.022</v>
       </c>
       <c r="B13" t="n">
-        <v>1582.758888909089</v>
+        <v>942.5196064045817</v>
       </c>
       <c r="C13" t="n">
-        <v>1582758888.909089</v>
+        <v>942519606.4045818</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>0.024</v>
       </c>
       <c r="B14" t="n">
-        <v>1589.697125943084</v>
+        <v>958.074598894951</v>
       </c>
       <c r="C14" t="n">
-        <v>1589697125.943084</v>
+        <v>958074598.894951</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>0.026</v>
       </c>
       <c r="B15" t="n">
-        <v>1596.12276040185</v>
+        <v>972.6480629726975</v>
       </c>
       <c r="C15" t="n">
-        <v>1596122760.40185</v>
+        <v>972648062.9726975</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>0.028</v>
       </c>
       <c r="B16" t="n">
-        <v>1602.108015993228</v>
+        <v>986.3687939208204</v>
       </c>
       <c r="C16" t="n">
-        <v>1602108015.993228</v>
+        <v>986368793.9208204</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>0.03</v>
       </c>
       <c r="B17" t="n">
-        <v>1607.710749756724</v>
+        <v>999.3410948356524</v>
       </c>
       <c r="C17" t="n">
-        <v>1607710749.756724</v>
+        <v>999341094.8356524</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>0.032</v>
       </c>
       <c r="B18" t="n">
-        <v>1612.978038577212</v>
+        <v>1011.650695545265</v>
       </c>
       <c r="C18" t="n">
-        <v>1612978038.577212</v>
+        <v>1011650695.545265</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>0.034</v>
       </c>
       <c r="B19" t="n">
-        <v>1617.948709986768</v>
+        <v>1023.368972520807</v>
       </c>
       <c r="C19" t="n">
-        <v>1617948709.986768</v>
+        <v>1023368972.520807</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>0.036</v>
       </c>
       <c r="B20" t="n">
-        <v>1622.655169934488</v>
+        <v>1034.556025924526</v>
       </c>
       <c r="C20" t="n">
-        <v>1622655169.934488</v>
+        <v>1034556025.924526</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>0.038</v>
       </c>
       <c r="B21" t="n">
-        <v>1627.124749863829</v>
+        <v>1045.262967869867</v>
       </c>
       <c r="C21" t="n">
-        <v>1627124749.863829</v>
+        <v>1045262967.869867</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>0.04</v>
       </c>
       <c r="B22" t="n">
-        <v>1631.380717428206</v>
+        <v>1055.533653860163</v>
       </c>
       <c r="C22" t="n">
-        <v>1631380717.428206</v>
+        <v>1055533653.860163</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +686,10 @@
         <v>0.042</v>
       </c>
       <c r="B23" t="n">
-        <v>1635.443046976575</v>
+        <v>1065.406013243661</v>
       </c>
       <c r="C23" t="n">
-        <v>1635443046.976575</v>
+        <v>1065406013.243661</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>0.044</v>
       </c>
       <c r="B24" t="n">
-        <v>1639.329015313195</v>
+        <v>1074.913085737004</v>
       </c>
       <c r="C24" t="n">
-        <v>1639329015.313195</v>
+        <v>1074913085.737004</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>0.046</v>
       </c>
       <c r="B25" t="n">
-        <v>1643.053668282869</v>
+        <v>1084.08383903314</v>
       </c>
       <c r="C25" t="n">
-        <v>1643053668.282869</v>
+        <v>1084083839.03314</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>0.048</v>
       </c>
       <c r="B26" t="n">
-        <v>1646.630190441632</v>
+        <v>1092.943821007977</v>
       </c>
       <c r="C26" t="n">
-        <v>1646630190.441632</v>
+        <v>1092943821.007977</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>0.05</v>
       </c>
       <c r="B27" t="n">
-        <v>1650.070201039699</v>
+        <v>1101.515685322378</v>
       </c>
       <c r="C27" t="n">
-        <v>1650070201.039699</v>
+        <v>1101515685.322378</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>0.052</v>
       </c>
       <c r="B28" t="n">
-        <v>1653.383993292064</v>
+        <v>1109.819618961202</v>
       </c>
       <c r="C28" t="n">
-        <v>1653383993.292064</v>
+        <v>1109819618.961202</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>0.054</v>
       </c>
       <c r="B29" t="n">
-        <v>1656.58072951389</v>
+        <v>1117.873692989316</v>
       </c>
       <c r="C29" t="n">
-        <v>1656580729.51389</v>
+        <v>1117873692.989316</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>0.056</v>
       </c>
       <c r="B30" t="n">
-        <v>1659.66860155637</v>
+        <v>1125.694152585662</v>
       </c>
       <c r="C30" t="n">
-        <v>1659668601.55637</v>
+        <v>1125694152.585662</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>0.058</v>
       </c>
       <c r="B31" t="n">
-        <v>1662.654963703913</v>
+        <v>1133.295658614723</v>
       </c>
       <c r="C31" t="n">
-        <v>1662654963.703913</v>
+        <v>1133295658.614723</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +785,10 @@
         <v>0.06</v>
       </c>
       <c r="B32" t="n">
-        <v>1665.54644352496</v>
+        <v>1140.691490190531</v>
       </c>
       <c r="C32" t="n">
-        <v>1665546443.52496</v>
+        <v>1140691490.190531</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>0.062</v>
       </c>
       <c r="B33" t="n">
-        <v>1668.349034930642</v>
+        <v>1147.893715595977</v>
       </c>
       <c r="C33" t="n">
-        <v>1668349034.930642</v>
+        <v>1147893715.595977</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +807,10 @@
         <v>0.064</v>
       </c>
       <c r="B34" t="n">
-        <v>1671.068176766569</v>
+        <v>1154.91333734222</v>
       </c>
       <c r="C34" t="n">
-        <v>1671068176.766569</v>
+        <v>1154913337.34222</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +818,10 @@
         <v>0.066</v>
       </c>
       <c r="B35" t="n">
-        <v>1673.70881955916</v>
+        <v>1161.760415951072</v>
       </c>
       <c r="C35" t="n">
-        <v>1673708819.55916</v>
+        <v>1161760415.951072</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +829,10 @@
         <v>0.068</v>
       </c>
       <c r="B36" t="n">
-        <v>1676.275482499403</v>
+        <v>1168.444176119307</v>
       </c>
       <c r="C36" t="n">
-        <v>1676275482.499403</v>
+        <v>1168444176.119307</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +840,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B37" t="n">
-        <v>1678.772302331375</v>
+        <v>1174.973098207389</v>
       </c>
       <c r="C37" t="n">
-        <v>1678772302.331375</v>
+        <v>1174973098.207389</v>
       </c>
     </row>
     <row r="38">
@@ -851,10 +851,10 @@
         <v>0.07199999999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>1681.203075489483</v>
+        <v>1181.354997435091</v>
       </c>
       <c r="C38" t="n">
-        <v>1681203075.489483</v>
+        <v>1181354997.435091</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +862,10 @@
         <v>0.074</v>
       </c>
       <c r="B39" t="n">
-        <v>1683.57129457479</v>
+        <v>1187.597092725391</v>
       </c>
       <c r="C39" t="n">
-        <v>1683571294.57479</v>
+        <v>1187597092.725391</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +873,10 @@
         <v>0.076</v>
       </c>
       <c r="B40" t="n">
-        <v>1685.880180060551</v>
+        <v>1193.706066788104</v>
       </c>
       <c r="C40" t="n">
-        <v>1685880180.060551</v>
+        <v>1193706066.788104</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +884,10 @@
         <v>0.078</v>
       </c>
       <c r="B41" t="n">
-        <v>1688.132707957747</v>
+        <v>1199.688118755294</v>
       </c>
       <c r="C41" t="n">
-        <v>1688132707.957747</v>
+        <v>1199688118.755294</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +895,10 @@
         <v>0.08</v>
       </c>
       <c r="B42" t="n">
-        <v>1690.331634043952</v>
+        <v>1205.549010455929</v>
       </c>
       <c r="C42" t="n">
-        <v>1690331634.043952</v>
+        <v>1205549010.45593</v>
       </c>
     </row>
     <row r="43">
@@ -906,10 +906,10 @@
         <v>0.082</v>
       </c>
       <c r="B43" t="n">
-        <v>1692.479515156172</v>
+        <v>1211.294107235667</v>
       </c>
       <c r="C43" t="n">
-        <v>1692479515.156172</v>
+        <v>1211294107.235667</v>
       </c>
     </row>
     <row r="44">
@@ -917,10 +917,10 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="B44" t="n">
-        <v>1694.578727965145</v>
+        <v>1216.928414080049</v>
       </c>
       <c r="C44" t="n">
-        <v>1694578727.965145</v>
+        <v>1216928414.080049</v>
       </c>
     </row>
     <row r="45">
@@ -928,10 +928,10 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>1696.63148558086</v>
+        <v>1222.456607678694</v>
       </c>
       <c r="C45" t="n">
-        <v>1696631485.58086</v>
+        <v>1222456607.678694</v>
       </c>
     </row>
     <row r="46">
@@ -939,10 +939,10 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>1698.639852283593</v>
+        <v>1227.883064968923</v>
       </c>
       <c r="C46" t="n">
-        <v>1698639852.283592</v>
+        <v>1227883064.968923</v>
       </c>
     </row>
     <row r="47">
@@ -950,10 +950,10 @@
         <v>0.09</v>
       </c>
       <c r="B47" t="n">
-        <v>1700.605756629174</v>
+        <v>1233.211888615396</v>
       </c>
       <c r="C47" t="n">
-        <v>1700605756.629174</v>
+        <v>1233211888.615396</v>
       </c>
     </row>
     <row r="48">
@@ -961,10 +961,10 @@
         <v>0.092</v>
       </c>
       <c r="B48" t="n">
-        <v>1702.531003139467</v>
+        <v>1238.446929814441</v>
       </c>
       <c r="C48" t="n">
-        <v>1702531003.139467</v>
+        <v>1238446929.814441</v>
       </c>
     </row>
     <row r="49">
@@ -972,10 +972,10 @@
         <v>0.094</v>
       </c>
       <c r="B49" t="n">
-        <v>1704.417282757747</v>
+        <v>1243.591808755186</v>
       </c>
       <c r="C49" t="n">
-        <v>1704417282.757746</v>
+        <v>1243591808.755186</v>
       </c>
     </row>
     <row r="50">
@@ -983,10 +983,10 @@
         <v>0.096</v>
       </c>
       <c r="B50" t="n">
-        <v>1706.266182222568</v>
+        <v>1248.649933022288</v>
       </c>
       <c r="C50" t="n">
-        <v>1706266182.222568</v>
+        <v>1248649933.022288</v>
       </c>
     </row>
     <row r="51">
@@ -994,10 +994,10 @@
         <v>0.098</v>
       </c>
       <c r="B51" t="n">
-        <v>1708.079192491859</v>
+        <v>1253.624514185301</v>
       </c>
       <c r="C51" t="n">
-        <v>1708079192.491859</v>
+        <v>1253624514.185301</v>
       </c>
     </row>
     <row r="52">
@@ -1005,10 +1005,10 @@
         <v>0.1</v>
       </c>
       <c r="B52" t="n">
-        <v>1709.857716330598</v>
+        <v>1258.518582786233</v>
       </c>
       <c r="C52" t="n">
-        <v>1709857716.330598</v>
+        <v>1258518582.786233</v>
       </c>
     </row>
     <row r="53">
@@ -1016,10 +1016,10 @@
         <v>0.102</v>
       </c>
       <c r="B53" t="n">
-        <v>1711.603075159937</v>
+        <v>1263.335001908459</v>
       </c>
       <c r="C53" t="n">
-        <v>1711603075.159937</v>
+        <v>1263335001.908459</v>
       </c>
     </row>
     <row r="54">
@@ -1027,10 +1027,10 @@
         <v>0.104</v>
       </c>
       <c r="B54" t="n">
-        <v>1713.316515252547</v>
+        <v>1268.07647948608</v>
       </c>
       <c r="C54" t="n">
-        <v>1713316515.252547</v>
+        <v>1268076479.48608</v>
       </c>
     </row>
     <row r="55">
@@ -1038,10 +1038,10 @@
         <v>0.106</v>
       </c>
       <c r="B55" t="n">
-        <v>1714.999213347754</v>
+        <v>1272.745579492326</v>
       </c>
       <c r="C55" t="n">
-        <v>1714999213.347754</v>
+        <v>1272745579.492326</v>
       </c>
     </row>
     <row r="56">
@@ -1049,10 +1049,10 @@
         <v>0.108</v>
       </c>
       <c r="B56" t="n">
-        <v>1716.652281750603</v>
+        <v>1277.344732128015</v>
       </c>
       <c r="C56" t="n">
-        <v>1716652281.750603</v>
+        <v>1277344732.128015</v>
       </c>
     </row>
     <row r="57">
@@ -1060,10 +1060,10 @@
         <v>0.11</v>
       </c>
       <c r="B57" t="n">
-        <v>1718.276772970808</v>
+        <v>1281.876243116072</v>
       </c>
       <c r="C57" t="n">
-        <v>1718276772.970808</v>
+        <v>1281876243.116072</v>
       </c>
     </row>
     <row r="58">
@@ -1071,10 +1071,10 @@
         <v>0.112</v>
       </c>
       <c r="B58" t="n">
-        <v>1719.873683950616</v>
+        <v>1286.342302195179</v>
       </c>
       <c r="C58" t="n">
-        <v>1719873683.950616</v>
+        <v>1286342302.195179</v>
       </c>
     </row>
     <row r="59">
@@ -1082,10 +1082,10 @@
         <v>0.114</v>
       </c>
       <c r="B59" t="n">
-        <v>1721.4439599246</v>
+        <v>1290.744990894435</v>
       </c>
       <c r="C59" t="n">
-        <v>1721443959.9246</v>
+        <v>1290744990.894435</v>
       </c>
     </row>
     <row r="60">
@@ -1093,10 +1093,10 @@
         <v>0.116</v>
       </c>
       <c r="B60" t="n">
-        <v>1722.988497949243</v>
+        <v>1295.086289661305</v>
       </c>
       <c r="C60" t="n">
-        <v>1722988497.949243</v>
+        <v>1295086289.661305</v>
       </c>
     </row>
     <row r="61">
@@ -1104,10 +1104,10 @@
         <v>0.118</v>
       </c>
       <c r="B61" t="n">
-        <v>1724.508150135684</v>
+        <v>1299.368084406728</v>
       </c>
       <c r="C61" t="n">
-        <v>1724508150.135684</v>
+        <v>1299368084.406728</v>
       </c>
     </row>
     <row r="62">
@@ -1115,10 +1115,10 @@
         <v>0.12</v>
       </c>
       <c r="B62" t="n">
-        <v>1726.003726615152</v>
+        <v>1303.592172524005</v>
       </c>
       <c r="C62" t="n">
-        <v>1726003726.615152</v>
+        <v>1303592172.524005</v>
       </c>
     </row>
     <row r="63">
@@ -1126,10 +1126,10 @@
         <v>0.122</v>
       </c>
       <c r="B63" t="n">
-        <v>1727.4759982632</v>
+        <v>1307.760268431732</v>
       </c>
       <c r="C63" t="n">
-        <v>1727475998.2632</v>
+        <v>1307760268.431732</v>
       </c>
     </row>
     <row r="64">
@@ -1137,10 +1137,10 @@
         <v>0.124</v>
       </c>
       <c r="B64" t="n">
-        <v>1728.925699205966</v>
+        <v>1311.874008685524</v>
       </c>
       <c r="C64" t="n">
-        <v>1728925699.205966</v>
+        <v>1311874008.685524</v>
       </c>
     </row>
     <row r="65">
@@ -1148,10 +1148,10 @@
         <v>0.126</v>
       </c>
       <c r="B65" t="n">
-        <v>1730.353529129072</v>
+        <v>1315.934956698394</v>
       </c>
       <c r="C65" t="n">
-        <v>1730353529.129072</v>
+        <v>1315934956.698394</v>
       </c>
     </row>
     <row r="66">
@@ -1159,10 +1159,10 @@
         <v>0.128</v>
       </c>
       <c r="B66" t="n">
-        <v>1731.760155407564</v>
+        <v>1319.944607105432</v>
       </c>
       <c r="C66" t="n">
-        <v>1731760155.407564</v>
+        <v>1319944607.105433</v>
       </c>
     </row>
     <row r="67">
@@ -1170,10 +1170,10 @@
         <v>0.13</v>
       </c>
       <c r="B67" t="n">
-        <v>1733.146215073309</v>
+        <v>1323.904389804655</v>
       </c>
       <c r="C67" t="n">
-        <v>1733146215.073309</v>
+        <v>1323904389.804655</v>
       </c>
     </row>
     <row r="68">
@@ -1181,10 +1181,10 @@
         <v>0.132</v>
       </c>
       <c r="B68" t="n">
-        <v>1734.512316634526</v>
+        <v>1327.815673702617</v>
       </c>
       <c r="C68" t="n">
-        <v>1734512316.634526</v>
+        <v>1327815673.702617</v>
       </c>
     </row>
     <row r="69">
@@ -1192,10 +1192,10 @@
         <v>0.134</v>
       </c>
       <c r="B69" t="n">
-        <v>1735.85904176062</v>
+        <v>1331.679770190452</v>
       </c>
       <c r="C69" t="n">
-        <v>1735859041.76062</v>
+        <v>1331679770.190452</v>
       </c>
     </row>
     <row r="70">
@@ -1203,10 +1203,10 @@
         <v>0.136</v>
       </c>
       <c r="B70" t="n">
-        <v>1737.186946844129</v>
+        <v>1335.497936373433</v>
       </c>
       <c r="C70" t="n">
-        <v>1737186946.844129</v>
+        <v>1335497936.373433</v>
       </c>
     </row>
     <row r="71">
@@ -1214,10 +1214,10 @@
         <v>0.138</v>
       </c>
       <c r="B71" t="n">
-        <v>1738.496564450388</v>
+        <v>1339.27137807487</v>
       </c>
       <c r="C71" t="n">
-        <v>1738496564.450388</v>
+        <v>1339271378.07487</v>
       </c>
     </row>
     <row r="72">
@@ -1225,10 +1225,10 @@
         <v>0.14</v>
       </c>
       <c r="B72" t="n">
-        <v>1739.788404664497</v>
+        <v>1343.001252633103</v>
       </c>
       <c r="C72" t="n">
-        <v>1739788404.664497</v>
+        <v>1343001252.633103</v>
       </c>
     </row>
     <row r="73">
@@ -1236,10 +1236,10 @@
         <v>0.142</v>
       </c>
       <c r="B73" t="n">
-        <v>1741.062956344193</v>
+        <v>1346.688671508587</v>
       </c>
       <c r="C73" t="n">
-        <v>1741062956.344193</v>
+        <v>1346688671.508587</v>
       </c>
     </row>
     <row r="74">
@@ -1247,10 +1247,10 @@
         <v>0.144</v>
       </c>
       <c r="B74" t="n">
-        <v>1742.320688286435</v>
+        <v>1350.334702716412</v>
       </c>
       <c r="C74" t="n">
-        <v>1742320688.286435</v>
+        <v>1350334702.716412</v>
       </c>
     </row>
     <row r="75">
@@ -1258,10 +1258,10 @@
         <v>0.146</v>
       </c>
       <c r="B75" t="n">
-        <v>1743.562050314734</v>
+        <v>1353.940373098191</v>
       </c>
       <c r="C75" t="n">
-        <v>1743562050.314734</v>
+        <v>1353940373.098191</v>
       </c>
     </row>
     <row r="76">
@@ -1269,10 +1269,10 @@
         <v>0.148</v>
       </c>
       <c r="B76" t="n">
-        <v>1744.787474293626</v>
+        <v>1357.506670445961</v>
       </c>
       <c r="C76" t="n">
-        <v>1744787474.293626</v>
+        <v>1357506670.445961</v>
       </c>
     </row>
     <row r="77">
@@ -1280,10 +1280,10 @@
         <v>0.15</v>
       </c>
       <c r="B77" t="n">
-        <v>1745.997375076066</v>
+        <v>1361.034545489577</v>
       </c>
       <c r="C77" t="n">
-        <v>1745997375.076066</v>
+        <v>1361034545.489577</v>
       </c>
     </row>
     <row r="78">
@@ -1291,10 +1291,10 @@
         <v>0.152</v>
       </c>
       <c r="B78" t="n">
-        <v>1747.192151389014</v>
+        <v>1364.524913758075</v>
       </c>
       <c r="C78" t="n">
-        <v>1747192151.389014</v>
+        <v>1364524913.758075</v>
       </c>
     </row>
     <row r="79">
@@ -1302,10 +1302,10 @@
         <v>0.154</v>
       </c>
       <c r="B79" t="n">
-        <v>1748.372186661991</v>
+        <v>1367.978657324512</v>
       </c>
       <c r="C79" t="n">
-        <v>1748372186.661991</v>
+        <v>1367978657.324512</v>
       </c>
     </row>
     <row r="80">
@@ -1313,10 +1313,10 @@
         <v>0.156</v>
       </c>
       <c r="B80" t="n">
-        <v>1749.537849802968</v>
+        <v>1371.396626443001</v>
       </c>
       <c r="C80" t="n">
-        <v>1749537849.802968</v>
+        <v>1371396626.443001</v>
       </c>
     </row>
     <row r="81">
@@ -1324,10 +1324,10 @@
         <v>0.158</v>
       </c>
       <c r="B81" t="n">
-        <v>1750.689495925554</v>
+        <v>1374.779641085878</v>
       </c>
       <c r="C81" t="n">
-        <v>1750689495.925554</v>
+        <v>1374779641.085878</v>
       </c>
     </row>
     <row r="82">
@@ -1335,10 +1335,10 @@
         <v>0.16</v>
       </c>
       <c r="B82" t="n">
-        <v>1751.827467031125</v>
+        <v>1378.128492388267</v>
       </c>
       <c r="C82" t="n">
-        <v>1751827467.031126</v>
+        <v>1378128492.388267</v>
       </c>
     </row>
     <row r="83">
@@ -1346,10 +1346,10 @@
         <v>0.162</v>
       </c>
       <c r="B83" t="n">
-        <v>1752.952092649193</v>
+        <v>1381.443944006704</v>
       </c>
       <c r="C83" t="n">
-        <v>1752952092.649194</v>
+        <v>1381443944.006704</v>
       </c>
     </row>
     <row r="84">
@@ -1357,10 +1357,10 @@
         <v>0.164</v>
       </c>
       <c r="B84" t="n">
-        <v>1754.06369043906</v>
+        <v>1384.726733397916</v>
       </c>
       <c r="C84" t="n">
-        <v>1754063690.43906</v>
+        <v>1384726733.397916</v>
       </c>
     </row>
     <row r="85">
@@ -1368,10 +1368,10 @@
         <v>0.166</v>
       </c>
       <c r="B85" t="n">
-        <v>1755.162566755537</v>
+        <v>1387.977573023364</v>
       </c>
       <c r="C85" t="n">
-        <v>1755162566.755537</v>
+        <v>1387977573.023364</v>
       </c>
     </row>
     <row r="86">
@@ -1379,10 +1379,10 @@
         <v>0.168</v>
       </c>
       <c r="B86" t="n">
-        <v>1756.249017181273</v>
+        <v>1391.197151484682</v>
       </c>
       <c r="C86" t="n">
-        <v>1756249017.181273</v>
+        <v>1391197151.484682</v>
       </c>
     </row>
     <row r="87">
@@ -1390,10 +1390,10 @@
         <v>0.17</v>
       </c>
       <c r="B87" t="n">
-        <v>1757.32332702804</v>
+        <v>1394.386134594756</v>
       </c>
       <c r="C87" t="n">
-        <v>1757323327.02804</v>
+        <v>1394386134.594755</v>
       </c>
     </row>
     <row r="88">
@@ -1401,10 +1401,10 @@
         <v>0.172</v>
       </c>
       <c r="B88" t="n">
-        <v>1758.385771809118</v>
+        <v>1397.545166388793</v>
       </c>
       <c r="C88" t="n">
-        <v>1758385771.809118</v>
+        <v>1397545166.388793</v>
       </c>
     </row>
     <row r="89">
@@ -1412,10 +1412,10 @@
         <v>0.174</v>
       </c>
       <c r="B89" t="n">
-        <v>1759.436617684767</v>
+        <v>1400.674870079398</v>
       </c>
       <c r="C89" t="n">
-        <v>1759436617.684767</v>
+        <v>1400674870.079398</v>
       </c>
     </row>
     <row r="90">
@@ -1423,10 +1423,10 @@
         <v>0.176</v>
       </c>
       <c r="B90" t="n">
-        <v>1760.476121882606</v>
+        <v>1403.775848959361</v>
       </c>
       <c r="C90" t="n">
-        <v>1760476121.882606</v>
+        <v>1403775848.959361</v>
       </c>
     </row>
     <row r="91">
@@ -1434,10 +1434,10 @@
         <v>0.178</v>
       </c>
       <c r="B91" t="n">
-        <v>1761.504533094576</v>
+        <v>1406.848687255569</v>
       </c>
       <c r="C91" t="n">
-        <v>1761504533.094576</v>
+        <v>1406848687.255569</v>
       </c>
     </row>
     <row r="92">
@@ -1445,10 +1445,10 @@
         <v>0.18</v>
       </c>
       <c r="B92" t="n">
-        <v>1762.522091852041</v>
+        <v>1409.893950937219</v>
       </c>
       <c r="C92" t="n">
-        <v>1762522091.852041</v>
+        <v>1409893950.937218</v>
       </c>
     </row>
     <row r="93">
@@ -1456,10 +1456,10 @@
         <v>0.182</v>
       </c>
       <c r="B93" t="n">
-        <v>1763.529030880457</v>
+        <v>1412.91218848123</v>
       </c>
       <c r="C93" t="n">
-        <v>1763529030.880457</v>
+        <v>1412912188.48123</v>
       </c>
     </row>
     <row r="94">
@@ -1467,10 +1467,10 @@
         <v>0.184</v>
       </c>
       <c r="B94" t="n">
-        <v>1764.525575434934</v>
+        <v>1415.903931597591</v>
       </c>
       <c r="C94" t="n">
-        <v>1764525575.434934</v>
+        <v>1415903931.597591</v>
       </c>
     </row>
     <row r="95">
@@ -1478,10 +1478,10 @@
         <v>0.186</v>
       </c>
       <c r="B95" t="n">
-        <v>1765.511943617909</v>
+        <v>1418.869695917126</v>
       </c>
       <c r="C95" t="n">
-        <v>1765511943.617909</v>
+        <v>1418869695.917126</v>
       </c>
     </row>
     <row r="96">
@@ -1489,10 +1489,10 @@
         <v>0.188</v>
       </c>
       <c r="B96" t="n">
-        <v>1766.488346680076</v>
+        <v>1421.809981644017</v>
       </c>
       <c r="C96" t="n">
-        <v>1766488346.680076</v>
+        <v>1421809981.644017</v>
       </c>
     </row>
     <row r="97">
@@ -1500,10 +1500,10 @@
         <v>0.19</v>
       </c>
       <c r="B97" t="n">
-        <v>1767.45498930561</v>
+        <v>1424.725274175244</v>
       </c>
       <c r="C97" t="n">
-        <v>1767454989.30561</v>
+        <v>1424725274.175244</v>
       </c>
     </row>
     <row r="98">
@@ -1511,10 +1511,10 @@
         <v>0.192</v>
       </c>
       <c r="B98" t="n">
-        <v>1768.412069882665</v>
+        <v>1427.616044688938</v>
       </c>
       <c r="C98" t="n">
-        <v>1768412069.882665</v>
+        <v>1427616044.688938</v>
       </c>
     </row>
     <row r="99">
@@ -1522,10 +1522,10 @@
         <v>0.194</v>
       </c>
       <c r="B99" t="n">
-        <v>1769.359780760055</v>
+        <v>1430.48275070352</v>
       </c>
       <c r="C99" t="n">
-        <v>1769359780.760055</v>
+        <v>1430482750.70352</v>
       </c>
     </row>
     <row r="100">
@@ -1533,10 +1533,10 @@
         <v>0.196</v>
       </c>
       <c r="B100" t="n">
-        <v>1770.298308490953</v>
+        <v>1433.325836609364</v>
       </c>
       <c r="C100" t="n">
-        <v>1770298308.490953</v>
+        <v>1433325836.609364</v>
       </c>
     </row>
     <row r="101">
@@ -1544,10 +1544,10 @@
         <v>0.198</v>
       </c>
       <c r="B101" t="n">
-        <v>1771.227834064385</v>
+        <v>1436.145734174588</v>
       </c>
       <c r="C101" t="n">
-        <v>1771227834.064385</v>
+        <v>1436145734.174588</v>
       </c>
     </row>
     <row r="102">
@@ -1555,10 +1555,10 @@
         <v>0.2</v>
       </c>
       <c r="B102" t="n">
-        <v>1772.14853312526</v>
+        <v>1438.94286302648</v>
       </c>
       <c r="C102" t="n">
-        <v>1772148533.12526</v>
+        <v>1438942863.02648</v>
       </c>
     </row>
     <row r="103">
@@ -1566,10 +1566,10 @@
         <v>0.202</v>
       </c>
       <c r="B103" t="n">
-        <v>1773.060576183593</v>
+        <v>1441.717631109978</v>
       </c>
       <c r="C103" t="n">
-        <v>1773060576.183594</v>
+        <v>1441717631.109978</v>
       </c>
     </row>
     <row r="104">
@@ -1577,10 +1577,10 @@
         <v>0.204</v>
       </c>
       <c r="B104" t="n">
-        <v>1773.964128813577</v>
+        <v>1444.470435124493</v>
       </c>
       <c r="C104" t="n">
-        <v>1773964128.813577</v>
+        <v>1444470435.124493</v>
       </c>
     </row>
     <row r="105">
@@ -1588,10 +1588,10 @@
         <v>0.206</v>
       </c>
       <c r="B105" t="n">
-        <v>1774.859351843058</v>
+        <v>1447.201660940308</v>
       </c>
       <c r="C105" t="n">
-        <v>1774859351.843058</v>
+        <v>1447201660.940308</v>
       </c>
     </row>
     <row r="106">
@@ -1599,10 +1599,10 @@
         <v>0.208</v>
       </c>
       <c r="B106" t="n">
-        <v>1775.746401533999</v>
+        <v>1449.911683995697</v>
       </c>
       <c r="C106" t="n">
-        <v>1775746401.533999</v>
+        <v>1449911683.995697</v>
       </c>
     </row>
     <row r="107">
@@ -1610,10 +1610,10 @@
         <v>0.21</v>
       </c>
       <c r="B107" t="n">
-        <v>1776.625429754417</v>
+        <v>1452.600869675828</v>
       </c>
       <c r="C107" t="n">
-        <v>1776625429.754417</v>
+        <v>1452600869.675828</v>
       </c>
     </row>
     <row r="108">
@@ -1621,10 +1621,10 @@
         <v>0.212</v>
       </c>
       <c r="B108" t="n">
-        <v>1777.496584142285</v>
+        <v>1455.269573674453</v>
       </c>
       <c r="C108" t="n">
-        <v>1777496584.142285</v>
+        <v>1455269573.674453</v>
       </c>
     </row>
     <row r="109">
@@ -1632,10 +1632,10 @@
         <v>0.214</v>
       </c>
       <c r="B109" t="n">
-        <v>1778.360008261842</v>
+        <v>1457.918142339319</v>
       </c>
       <c r="C109" t="n">
-        <v>1778360008.261842</v>
+        <v>1457918142.339319</v>
       </c>
     </row>
     <row r="110">
@@ -1643,10 +1643,10 @@
         <v>0.216</v>
       </c>
       <c r="B110" t="n">
-        <v>1779.215841752733</v>
+        <v>1460.546913002175</v>
       </c>
       <c r="C110" t="n">
-        <v>1779215841.752733</v>
+        <v>1460546913.002175</v>
       </c>
     </row>
     <row r="111">
@@ -1654,10 +1654,10 @@
         <v>0.218</v>
       </c>
       <c r="B111" t="n">
-        <v>1780.064220472366</v>
+        <v>1463.156214294207</v>
       </c>
       <c r="C111" t="n">
-        <v>1780064220.472366</v>
+        <v>1463156214.294207</v>
       </c>
     </row>
     <row r="112">
@@ -1665,10 +1665,10 @@
         <v>0.22</v>
       </c>
       <c r="B112" t="n">
-        <v>1780.905276631858</v>
+        <v>1465.746366447651</v>
       </c>
       <c r="C112" t="n">
-        <v>1780905276.631858</v>
+        <v>1465746366.447651</v>
       </c>
     </row>
     <row r="113">
@@ -1676,10 +1676,10 @@
         <v>0.222</v>
       </c>
       <c r="B113" t="n">
-        <v>1781.739138925914</v>
+        <v>1468.317681584339</v>
       </c>
       <c r="C113" t="n">
-        <v>1781739138.925914</v>
+        <v>1468317681.584339</v>
       </c>
     </row>
     <row r="114">
@@ -1687,10 +1687,10 @@
         <v>0.224</v>
       </c>
       <c r="B114" t="n">
-        <v>1782.565932656958</v>
+        <v>1470.870463991824</v>
       </c>
       <c r="C114" t="n">
-        <v>1782565932.656958</v>
+        <v>1470870463.991824</v>
       </c>
     </row>
     <row r="115">
@@ -1698,10 +1698,10 @@
         <v>0.226</v>
       </c>
       <c r="B115" t="n">
-        <v>1783.385779853817</v>
+        <v>1473.405010387749</v>
       </c>
       <c r="C115" t="n">
-        <v>1783385779.853817</v>
+        <v>1473405010.387749</v>
       </c>
     </row>
     <row r="116">
@@ -1709,10 +1709,10 @@
         <v>0.228</v>
       </c>
       <c r="B116" t="n">
-        <v>1784.198799385254</v>
+        <v>1475.921610173043</v>
       </c>
       <c r="C116" t="n">
-        <v>1784198799.385254</v>
+        <v>1475921610.173043</v>
       </c>
     </row>
     <row r="117">
@@ -1720,10 +1720,10 @@
         <v>0.23</v>
       </c>
       <c r="B117" t="n">
-        <v>1785.005107068605</v>
+        <v>1478.42054567452</v>
       </c>
       <c r="C117" t="n">
-        <v>1785005107.068605</v>
+        <v>1478420545.67452</v>
       </c>
     </row>
     <row r="118">
@@ -1731,10 +1731,10 @@
         <v>0.232</v>
       </c>
       <c r="B118" t="n">
-        <v>1785.804815773775</v>
+        <v>1480.902092377408</v>
       </c>
       <c r="C118" t="n">
-        <v>1785804815.773775</v>
+        <v>1480902092.377408</v>
       </c>
     </row>
     <row r="119">
@@ -1742,10 +1742,10 @@
         <v>0.234</v>
       </c>
       <c r="B119" t="n">
-        <v>1786.598035522832</v>
+        <v>1483.366519148305</v>
       </c>
       <c r="C119" t="n">
-        <v>1786598035.522832</v>
+        <v>1483366519.148305</v>
       </c>
     </row>
     <row r="120">
@@ -1753,10 +1753,10 @@
         <v>0.236</v>
       </c>
       <c r="B120" t="n">
-        <v>1787.384873585418</v>
+        <v>1485.814088449043</v>
       </c>
       <c r="C120" t="n">
-        <v>1787384873.585418</v>
+        <v>1485814088.449043</v>
       </c>
     </row>
     <row r="121">
@@ -1764,10 +1764,10 @@
         <v>0.238</v>
       </c>
       <c r="B121" t="n">
-        <v>1788.165434570188</v>
+        <v>1488.245056541897</v>
       </c>
       <c r="C121" t="n">
-        <v>1788165434.570188</v>
+        <v>1488245056.541897</v>
       </c>
     </row>
     <row r="122">
@@ -1775,10 +1775,10 @@
         <v>0.24</v>
       </c>
       <c r="B122" t="n">
-        <v>1788.939820512474</v>
+        <v>1490.659673686559</v>
       </c>
       <c r="C122" t="n">
-        <v>1788939820.512474</v>
+        <v>1490659673.686558</v>
       </c>
     </row>
     <row r="123">
@@ -1786,10 +1786,10 @@
         <v>0.242</v>
       </c>
       <c r="B123" t="n">
-        <v>1789.708130958358</v>
+        <v>1493.058184329275</v>
       </c>
       <c r="C123" t="n">
-        <v>1789708130.958358</v>
+        <v>1493058184.329276</v>
       </c>
     </row>
     <row r="124">
@@ -1797,10 +1797,10 @@
         <v>0.244</v>
       </c>
       <c r="B124" t="n">
-        <v>1790.47046304533</v>
+        <v>1495.440827284525</v>
       </c>
       <c r="C124" t="n">
-        <v>1790470463.045331</v>
+        <v>1495440827.284525</v>
       </c>
     </row>
     <row r="125">
@@ -1808,10 +1808,10 @@
         <v>0.246</v>
       </c>
       <c r="B125" t="n">
-        <v>1791.226911579703</v>
+        <v>1497.807835909578</v>
       </c>
       <c r="C125" t="n">
-        <v>1791226911.579703</v>
+        <v>1497807835.909578</v>
       </c>
     </row>
     <row r="126">
@@ -1819,10 +1819,10 @@
         <v>0.248</v>
       </c>
       <c r="B126" t="n">
-        <v>1791.977569110926</v>
+        <v>1500.159438272282</v>
       </c>
       <c r="C126" t="n">
-        <v>1791977569.110926</v>
+        <v>1500159438.272282</v>
       </c>
     </row>
     <row r="127">
@@ -1830,10 +1830,10 @@
         <v>0.25</v>
       </c>
       <c r="B127" t="n">
-        <v>1792.722526002959</v>
+        <v>1502.49585731239</v>
       </c>
       <c r="C127" t="n">
-        <v>1792722526.002959</v>
+        <v>1502495857.31239</v>
       </c>
     </row>
     <row r="128">
@@ -1841,10 +1841,10 @@
         <v>0.252</v>
       </c>
       <c r="B128" t="n">
-        <v>1793.461870502836</v>
+        <v>1504.817310996715</v>
       </c>
       <c r="C128" t="n">
-        <v>1793461870.502836</v>
+        <v>1504817310.996715</v>
       </c>
     </row>
     <row r="129">
@@ -1852,10 +1852,10 @@
         <v>0.254</v>
       </c>
       <c r="B129" t="n">
-        <v>1794.195688806561</v>
+        <v>1507.124012468411</v>
       </c>
       <c r="C129" t="n">
-        <v>1794195688.806561</v>
+        <v>1507124012.468411</v>
       </c>
     </row>
     <row r="130">
@@ -1863,10 +1863,10 @@
         <v>0.256</v>
       </c>
       <c r="B130" t="n">
-        <v>1794.924065122444</v>
+        <v>1509.416170190639</v>
       </c>
       <c r="C130" t="n">
-        <v>1794924065.122444</v>
+        <v>1509416170.190639</v>
       </c>
     </row>
     <row r="131">
@@ -1874,10 +1874,10 @@
         <v>0.258</v>
       </c>
       <c r="B131" t="n">
-        <v>1795.647081732009</v>
+        <v>1511.693988084865</v>
       </c>
       <c r="C131" t="n">
-        <v>1795647081.732009</v>
+        <v>1511693988.084865</v>
       </c>
     </row>
     <row r="132">
@@ -1885,10 +1885,10 @@
         <v>0.26</v>
       </c>
       <c r="B132" t="n">
-        <v>1796.364819048586</v>
+        <v>1513.957665664047</v>
       </c>
       <c r="C132" t="n">
-        <v>1796364819.048586</v>
+        <v>1513957665.664047</v>
       </c>
     </row>
     <row r="133">
@@ -1896,10 +1896,10 @@
         <v>0.262</v>
       </c>
       <c r="B133" t="n">
-        <v>1797.077355673678</v>
+        <v>1516.207398160918</v>
       </c>
       <c r="C133" t="n">
-        <v>1797077355.673678</v>
+        <v>1516207398.160918</v>
       </c>
     </row>
     <row r="134">
@@ -1907,10 +1907,10 @@
         <v>0.264</v>
       </c>
       <c r="B134" t="n">
-        <v>1797.784768451216</v>
+        <v>1518.443376651599</v>
       </c>
       <c r="C134" t="n">
-        <v>1797784768.451216</v>
+        <v>1518443376.651599</v>
       </c>
     </row>
     <row r="135">
@@ -1918,10 +1918,10 @@
         <v>0.266</v>
       </c>
       <c r="B135" t="n">
-        <v>1798.487132519801</v>
+        <v>1520.665788174731</v>
       </c>
       <c r="C135" t="n">
-        <v>1798487132.5198</v>
+        <v>1520665788.174731</v>
       </c>
     </row>
     <row r="136">
@@ -1929,10 +1929,10 @@
         <v>0.268</v>
       </c>
       <c r="B136" t="n">
-        <v>1799.184521362997</v>
+        <v>1522.874815846334</v>
       </c>
       <c r="C136" t="n">
-        <v>1799184521.362997</v>
+        <v>1522874815.846334</v>
       </c>
     </row>
     <row r="137">
@@ -1940,10 +1940,10 @@
         <v>0.27</v>
       </c>
       <c r="B137" t="n">
-        <v>1799.877006857799</v>
+        <v>1525.070638970566</v>
       </c>
       <c r="C137" t="n">
-        <v>1799877006.8578</v>
+        <v>1525070638.970566</v>
       </c>
     </row>
     <row r="138">
@@ -1951,10 +1951,10 @@
         <v>0.272</v>
       </c>
       <c r="B138" t="n">
-        <v>1800.564659321321</v>
+        <v>1527.253433146563</v>
       </c>
       <c r="C138" t="n">
-        <v>1800564659.321321</v>
+        <v>1527253433.146563</v>
       </c>
     </row>
     <row r="139">
@@ -1962,10 +1962,10 @@
         <v>0.274</v>
       </c>
       <c r="B139" t="n">
-        <v>1801.247547555799</v>
+        <v>1529.423370371525</v>
       </c>
       <c r="C139" t="n">
-        <v>1801247547.555799</v>
+        <v>1529423370.371525</v>
       </c>
     </row>
     <row r="140">
@@ -1973,10 +1973,10 @@
         <v>0.276</v>
       </c>
       <c r="B140" t="n">
-        <v>1801.925738891983</v>
+        <v>1531.580619140208</v>
       </c>
       <c r="C140" t="n">
-        <v>1801925738.891983</v>
+        <v>1531580619.140208</v>
       </c>
     </row>
     <row r="141">
@@ -1984,10 +1984,10 @@
         <v>0.278</v>
       </c>
       <c r="B141" t="n">
-        <v>1802.599299230979</v>
+        <v>1533.72534454097</v>
       </c>
       <c r="C141" t="n">
-        <v>1802599299.230979</v>
+        <v>1533725344.54097</v>
       </c>
     </row>
     <row r="142">
@@ -1995,10 +1995,10 @@
         <v>0.28</v>
       </c>
       <c r="B142" t="n">
-        <v>1803.26829308461</v>
+        <v>1535.857708348514</v>
       </c>
       <c r="C142" t="n">
-        <v>1803268293.08461</v>
+        <v>1535857708.348514</v>
       </c>
     </row>
     <row r="143">
@@ -2006,10 +2006,10 @@
         <v>0.282</v>
       </c>
       <c r="B143" t="n">
-        <v>1803.932783614362</v>
+        <v>1537.977869113462</v>
       </c>
       <c r="C143" t="n">
-        <v>1803932783.614362</v>
+        <v>1537977869.113462</v>
       </c>
     </row>
     <row r="144">
@@ -2017,10 +2017,10 @@
         <v>0.284</v>
       </c>
       <c r="B144" t="n">
-        <v>1804.592832668968</v>
+        <v>1540.085982248905</v>
       </c>
       <c r="C144" t="n">
-        <v>1804592832.668968</v>
+        <v>1540085982.248905</v>
       </c>
     </row>
     <row r="145">
@@ -2028,10 +2028,10 @@
         <v>0.286</v>
       </c>
       <c r="B145" t="n">
-        <v>1805.24850082069</v>
+        <v>1542.182200114021</v>
       </c>
       <c r="C145" t="n">
-        <v>1805248500.82069</v>
+        <v>1542182200.114022</v>
       </c>
     </row>
     <row r="146">
@@ -2039,10 +2039,10 @@
         <v>0.288</v>
       </c>
       <c r="B146" t="n">
-        <v>1805.899847400359</v>
+        <v>1544.266672094918</v>
       </c>
       <c r="C146" t="n">
-        <v>1805899847.400359</v>
+        <v>1544266672.094918</v>
       </c>
     </row>
     <row r="147">
@@ -2050,10 +2050,10 @@
         <v>0.29</v>
       </c>
       <c r="B147" t="n">
-        <v>1806.546930531209</v>
+        <v>1546.339544682776</v>
       </c>
       <c r="C147" t="n">
-        <v>1806546930.531209</v>
+        <v>1546339544.682776</v>
       </c>
     </row>
     <row r="148">
@@ -2061,10 +2061,10 @@
         <v>0.292</v>
       </c>
       <c r="B148" t="n">
-        <v>1807.189807161572</v>
+        <v>1548.400961549426</v>
       </c>
       <c r="C148" t="n">
-        <v>1807189807.161572</v>
+        <v>1548400961.549427</v>
       </c>
     </row>
     <row r="149">
@@ -2072,10 +2072,10 @@
         <v>0.294</v>
       </c>
       <c r="B149" t="n">
-        <v>1807.828533096461</v>
+        <v>1550.451063620449</v>
       </c>
       <c r="C149" t="n">
-        <v>1807828533.096461</v>
+        <v>1550451063.620449</v>
       </c>
     </row>
     <row r="150">
@@ -2083,10 +2083,10 @@
         <v>0.296</v>
       </c>
       <c r="B150" t="n">
-        <v>1808.463163028108</v>
+        <v>1552.489989145895</v>
       </c>
       <c r="C150" t="n">
-        <v>1808463163.028108</v>
+        <v>1552489989.145895</v>
       </c>
     </row>
     <row r="151">
@@ -2094,10 +2094,10 @@
         <v>0.298</v>
       </c>
       <c r="B151" t="n">
-        <v>1809.093750565477</v>
+        <v>1554.517873768727</v>
       </c>
       <c r="C151" t="n">
-        <v>1809093750.565476</v>
+        <v>1554517873.768727</v>
       </c>
     </row>
     <row r="152">
@@ -2105,10 +2105,10 @@
         <v>0.3</v>
       </c>
       <c r="B152" t="n">
-        <v>1809.720348262806</v>
+        <v>1556.534850591056</v>
       </c>
       <c r="C152" t="n">
-        <v>1809720348.262806</v>
+        <v>1556534850.591056</v>
       </c>
     </row>
     <row r="153">
@@ -2116,10 +2116,10 @@
         <v>0.302</v>
       </c>
       <c r="B153" t="n">
-        <v>1810.343007647217</v>
+        <v>1558.541050238277</v>
       </c>
       <c r="C153" t="n">
-        <v>1810343007.647217</v>
+        <v>1558541050.238277</v>
       </c>
     </row>
     <row r="154">
@@ -2127,10 +2127,10 @@
         <v>0.304</v>
       </c>
       <c r="B154" t="n">
-        <v>1810.961779245414</v>
+        <v>1560.53660092117</v>
       </c>
       <c r="C154" t="n">
-        <v>1810961779.245414</v>
+        <v>1560536600.92117</v>
       </c>
     </row>
     <row r="155">
@@ -2138,10 +2138,10 @@
         <v>0.306</v>
       </c>
       <c r="B155" t="n">
-        <v>1811.576712609535</v>
+        <v>1562.521628496041</v>
       </c>
       <c r="C155" t="n">
-        <v>1811576712.609535</v>
+        <v>1562521628.496041</v>
       </c>
     </row>
     <row r="156">
@@ -2149,10 +2149,10 @@
         <v>0.308</v>
       </c>
       <c r="B156" t="n">
-        <v>1812.187856342153</v>
+        <v>1564.496256522996</v>
       </c>
       <c r="C156" t="n">
-        <v>1812187856.342153</v>
+        <v>1564496256.522996</v>
       </c>
     </row>
     <row r="157">
@@ -2160,10 +2160,10 @@
         <v>0.31</v>
       </c>
       <c r="B157" t="n">
-        <v>1812.795258120492</v>
+        <v>1566.460606322396</v>
       </c>
       <c r="C157" t="n">
-        <v>1812795258.120492</v>
+        <v>1566460606.322396</v>
       </c>
     </row>
     <row r="158">
@@ -2171,10 +2171,10 @@
         <v>0.312</v>
       </c>
       <c r="B158" t="n">
-        <v>1813.398964719872</v>
+        <v>1568.414797029572</v>
       </c>
       <c r="C158" t="n">
-        <v>1813398964.719872</v>
+        <v>1568414797.029572</v>
       </c>
     </row>
     <row r="159">
@@ -2182,10 +2182,10 @@
         <v>0.314</v>
       </c>
       <c r="B159" t="n">
-        <v>1813.999022036403</v>
+        <v>1570.35894564787</v>
       </c>
       <c r="C159" t="n">
-        <v>1813999022.036403</v>
+        <v>1570358945.64787</v>
       </c>
     </row>
     <row r="160">
@@ -2193,10 +2193,10 @@
         <v>0.316</v>
       </c>
       <c r="B160" t="n">
-        <v>1814.595475108988</v>
+        <v>1572.293167100068</v>
       </c>
       <c r="C160" t="n">
-        <v>1814595475.108988</v>
+        <v>1572293167.100068</v>
       </c>
     </row>
     <row r="161">
@@ -2204,10 +2204,10 @@
         <v>0.318</v>
       </c>
       <c r="B161" t="n">
-        <v>1815.188368140619</v>
+        <v>1574.217574278247</v>
       </c>
       <c r="C161" t="n">
-        <v>1815188368.140619</v>
+        <v>1574217574.278247</v>
       </c>
     </row>
     <row r="162">
@@ -2215,10 +2215,10 @@
         <v>0.32</v>
       </c>
       <c r="B162" t="n">
-        <v>1815.77774451903</v>
+        <v>1576.132278092161</v>
       </c>
       <c r="C162" t="n">
-        <v>1815777744.51903</v>
+        <v>1576132278.092161</v>
       </c>
     </row>
     <row r="163">
@@ -2226,10 +2226,10 @@
         <v>0.322</v>
       </c>
       <c r="B163" t="n">
-        <v>1816.363646836706</v>
+        <v>1578.037387516152</v>
       </c>
       <c r="C163" t="n">
-        <v>1816363646.836706</v>
+        <v>1578037387.516152</v>
       </c>
     </row>
     <row r="164">
@@ -2237,10 +2237,10 @@
         <v>0.324</v>
       </c>
       <c r="B164" t="n">
-        <v>1816.946116910282</v>
+        <v>1579.933009634686</v>
       </c>
       <c r="C164" t="n">
-        <v>1816946116.910282</v>
+        <v>1579933009.634686</v>
       </c>
     </row>
     <row r="165">
@@ -2248,10 +2248,10 @@
         <v>0.326</v>
       </c>
       <c r="B165" t="n">
-        <v>1817.525195799356</v>
+        <v>1581.819249686529</v>
       </c>
       <c r="C165" t="n">
-        <v>1817525195.799356</v>
+        <v>1581819249.686529</v>
       </c>
     </row>
     <row r="166">
@@ -2259,10 +2259,10 @@
         <v>0.328</v>
       </c>
       <c r="B166" t="n">
-        <v>1818.100923824729</v>
+        <v>1583.696211107643</v>
       </c>
       <c r="C166" t="n">
-        <v>1818100923.824729</v>
+        <v>1583696211.107643</v>
       </c>
     </row>
     <row r="167">
@@ -2270,10 +2270,10 @@
         <v>0.33</v>
       </c>
       <c r="B167" t="n">
-        <v>1818.673340586099</v>
+        <v>1585.563995572815</v>
       </c>
       <c r="C167" t="n">
-        <v>1818673340.586099</v>
+        <v>1585563995.572815</v>
       </c>
     </row>
     <row r="168">
@@ -2281,10 +2281,10 @@
         <v>0.332</v>
       </c>
       <c r="B168" t="n">
-        <v>1819.242484979228</v>
+        <v>1587.422703036091</v>
       </c>
       <c r="C168" t="n">
-        <v>1819242484.979228</v>
+        <v>1587422703.036091</v>
       </c>
     </row>
     <row r="169">
@@ -2292,10 +2292,10 @@
         <v>0.334</v>
       </c>
       <c r="B169" t="n">
-        <v>1819.808395212604</v>
+        <v>1589.272431770041</v>
       </c>
       <c r="C169" t="n">
-        <v>1819808395.212605</v>
+        <v>1589272431.770041</v>
       </c>
     </row>
     <row r="170">
@@ -2303,10 +2303,10 @@
         <v>0.336</v>
       </c>
       <c r="B170" t="n">
-        <v>1820.3711088236</v>
+        <v>1591.113278403895</v>
       </c>
       <c r="C170" t="n">
-        <v>1820371108.8236</v>
+        <v>1591113278.403895</v>
       </c>
     </row>
     <row r="171">
@@ -2314,10 +2314,10 @@
         <v>0.338</v>
       </c>
       <c r="B171" t="n">
-        <v>1820.93066269417</v>
+        <v>1592.945337960604</v>
       </c>
       <c r="C171" t="n">
-        <v>1820930662.69417</v>
+        <v>1592945337.960604</v>
       </c>
     </row>
     <row r="172">
@@ -2325,10 +2325,10 @@
         <v>0.34</v>
       </c>
       <c r="B172" t="n">
-        <v>1821.487093066087</v>
+        <v>1594.768703892837</v>
       </c>
       <c r="C172" t="n">
-        <v>1821487093.066087</v>
+        <v>1594768703.892838</v>
       </c>
     </row>
     <row r="173">
@@ -2336,10 +2336,10 @@
         <v>0.342</v>
       </c>
       <c r="B173" t="n">
-        <v>1822.040435555733</v>
+        <v>1596.583468117981</v>
       </c>
       <c r="C173" t="n">
-        <v>1822040435.555733</v>
+        <v>1596583468.117981</v>
       </c>
     </row>
     <row r="174">
@@ -2347,10 +2347,10 @@
         <v>0.344</v>
       </c>
       <c r="B174" t="n">
-        <v>1822.590725168472</v>
+        <v>1598.389721052149</v>
       </c>
       <c r="C174" t="n">
-        <v>1822590725.168472</v>
+        <v>1598389721.052149</v>
       </c>
     </row>
     <row r="175">
@@ -2358,10 +2358,10 @@
         <v>0.346</v>
       </c>
       <c r="B175" t="n">
-        <v>1823.1379963126</v>
+        <v>1600.187551643248</v>
       </c>
       <c r="C175" t="n">
-        <v>1823137996.3126</v>
+        <v>1600187551.643248</v>
       </c>
     </row>
     <row r="176">
@@ -2369,10 +2369,10 @@
         <v>0.348</v>
       </c>
       <c r="B176" t="n">
-        <v>1823.682282812913</v>
+        <v>1601.977047403135</v>
       </c>
       <c r="C176" t="n">
-        <v>1823682282.812913</v>
+        <v>1601977047.403135</v>
       </c>
     </row>
     <row r="177">
@@ -2380,10 +2380,10 @@
         <v>0.35</v>
       </c>
       <c r="B177" t="n">
-        <v>1824.223617923875</v>
+        <v>1603.75829443888</v>
       </c>
       <c r="C177" t="n">
-        <v>1824223617.923875</v>
+        <v>1603758294.43888</v>
       </c>
     </row>
     <row r="178">
@@ -2391,10 +2391,10 @@
         <v>0.352</v>
       </c>
       <c r="B178" t="n">
-        <v>1824.76203434243</v>
+        <v>1605.531377483187</v>
       </c>
       <c r="C178" t="n">
-        <v>1824762034.34243</v>
+        <v>1605531377.483186</v>
       </c>
     </row>
     <row r="179">
@@ -2402,10 +2402,10 @@
         <v>0.354</v>
       </c>
       <c r="B179" t="n">
-        <v>1825.297564220444</v>
+        <v>1607.296379923973</v>
       </c>
       <c r="C179" t="n">
-        <v>1825297564.220444</v>
+        <v>1607296379.923973</v>
       </c>
     </row>
     <row r="180">
@@ -2413,10 +2413,10 @@
         <v>0.356</v>
       </c>
       <c r="B180" t="n">
-        <v>1825.830239176807</v>
+        <v>1609.053383833161</v>
       </c>
       <c r="C180" t="n">
-        <v>1825830239.176807</v>
+        <v>1609053383.833161</v>
       </c>
     </row>
     <row r="181">
@@ -2424,10 +2424,10 @@
         <v>0.358</v>
       </c>
       <c r="B181" t="n">
-        <v>1826.360090309201</v>
+        <v>1610.802469994693</v>
       </c>
       <c r="C181" t="n">
-        <v>1826360090.309201</v>
+        <v>1610802469.994693</v>
       </c>
     </row>
     <row r="182">
@@ -2435,10 +2435,10 @@
         <v>0.36</v>
       </c>
       <c r="B182" t="n">
-        <v>1826.887148205538</v>
+        <v>1612.543717931791</v>
       </c>
       <c r="C182" t="n">
-        <v>1826887148.205538</v>
+        <v>1612543717.931791</v>
       </c>
     </row>
     <row r="183">
@@ -2446,10 +2446,10 @@
         <v>0.362</v>
       </c>
       <c r="B183" t="n">
-        <v>1827.411442955093</v>
+        <v>1614.2772059335</v>
       </c>
       <c r="C183" t="n">
-        <v>1827411442.955092</v>
+        <v>1614277205.9335</v>
       </c>
     </row>
     <row r="184">
@@ -2457,10 +2457,10 @@
         <v>0.364</v>
       </c>
       <c r="B184" t="n">
-        <v>1827.933004159326</v>
+        <v>1616.003011080526</v>
       </c>
       <c r="C184" t="n">
-        <v>1827933004.159326</v>
+        <v>1616003011.080526</v>
       </c>
     </row>
     <row r="185">
@@ -2468,10 +2468,10 @@
         <v>0.366</v>
       </c>
       <c r="B185" t="n">
-        <v>1828.45186094242</v>
+        <v>1617.721209270394</v>
       </c>
       <c r="C185" t="n">
-        <v>1828451860.94242</v>
+        <v>1617721209.270394</v>
       </c>
     </row>
     <row r="186">
@@ -2479,10 +2479,10 @@
         <v>0.368</v>
       </c>
       <c r="B186" t="n">
-        <v>1828.968041961527</v>
+        <v>1619.431875241947</v>
       </c>
       <c r="C186" t="n">
-        <v>1828968041.961527</v>
+        <v>1619431875.241947</v>
       </c>
     </row>
     <row r="187">
@@ -2490,10 +2490,10 @@
         <v>0.37</v>
       </c>
       <c r="B187" t="n">
-        <v>1829.481575416745</v>
+        <v>1621.135082599215</v>
       </c>
       <c r="C187" t="n">
-        <v>1829481575.416745</v>
+        <v>1621135082.599215</v>
       </c>
     </row>
     <row r="188">
@@ -2501,10 +2501,10 @@
         <v>0.372</v>
       </c>
       <c r="B188" t="n">
-        <v>1829.992489060826</v>
+        <v>1622.830903834656</v>
       </c>
       <c r="C188" t="n">
-        <v>1829992489.060826</v>
+        <v>1622830903.834656</v>
       </c>
     </row>
     <row r="189">
@@ -2512,10 +2512,10 @@
         <v>0.374</v>
       </c>
       <c r="B189" t="n">
-        <v>1830.50081020863</v>
+        <v>1624.519410351807</v>
       </c>
       <c r="C189" t="n">
-        <v>1830500810.20863</v>
+        <v>1624519410.351807</v>
       </c>
     </row>
     <row r="190">
@@ -2523,10 +2523,10 @@
         <v>0.376</v>
       </c>
       <c r="B190" t="n">
-        <v>1831.006565746331</v>
+        <v>1626.200672487354</v>
       </c>
       <c r="C190" t="n">
-        <v>1831006565.746331</v>
+        <v>1626200672.487355</v>
       </c>
     </row>
     <row r="191">
@@ -2534,10 +2534,10 @@
         <v>0.378</v>
       </c>
       <c r="B191" t="n">
-        <v>1831.509782140374</v>
+        <v>1627.874759532637</v>
       </c>
       <c r="C191" t="n">
-        <v>1831509782.140373</v>
+        <v>1627874759.532637</v>
       </c>
     </row>
     <row r="192">
@@ -2545,10 +2545,10 @@
         <v>0.38</v>
       </c>
       <c r="B192" t="n">
-        <v>1832.010485446206</v>
+        <v>1629.54173975461</v>
       </c>
       <c r="C192" t="n">
-        <v>1832010485.446206</v>
+        <v>1629541739.75461</v>
       </c>
     </row>
     <row r="193">
@@ -2556,10 +2556,10 @@
         <v>0.382</v>
       </c>
       <c r="B193" t="n">
-        <v>1832.508701316783</v>
+        <v>1631.201680416281</v>
       </c>
       <c r="C193" t="n">
-        <v>1832508701.316783</v>
+        <v>1631201680.416281</v>
       </c>
     </row>
     <row r="194">
@@ -2567,10 +2567,10 @@
         <v>0.384</v>
       </c>
       <c r="B194" t="n">
-        <v>1833.004455010847</v>
+        <v>1632.85464779663</v>
       </c>
       <c r="C194" t="n">
-        <v>1833004455.010847</v>
+        <v>1632854647.79663</v>
       </c>
     </row>
     <row r="195">
@@ -2578,10 +2578,10 @@
         <v>0.386</v>
       </c>
       <c r="B195" t="n">
-        <v>1833.497771400998</v>
+        <v>1634.500707210036</v>
       </c>
       <c r="C195" t="n">
-        <v>1833497771.400998</v>
+        <v>1634500707.210036</v>
       </c>
     </row>
     <row r="196">
@@ -2589,10 +2589,10 @@
         <v>0.388</v>
       </c>
       <c r="B196" t="n">
-        <v>1833.988674981561</v>
+        <v>1636.139923025221</v>
       </c>
       <c r="C196" t="n">
-        <v>1833988674.981561</v>
+        <v>1636139923.025221</v>
       </c>
     </row>
     <row r="197">
@@ -2600,10 +2600,10 @@
         <v>0.39</v>
       </c>
       <c r="B197" t="n">
-        <v>1834.477189876251</v>
+        <v>1637.772358683727</v>
       </c>
       <c r="C197" t="n">
-        <v>1834477189.876251</v>
+        <v>1637772358.683727</v>
       </c>
     </row>
     <row r="198">
@@ -2611,10 +2611,10 @@
         <v>0.392</v>
       </c>
       <c r="B198" t="n">
-        <v>1834.963339845641</v>
+        <v>1639.398076717936</v>
       </c>
       <c r="C198" t="n">
-        <v>1834963339.845641</v>
+        <v>1639398076.717936</v>
       </c>
     </row>
     <row r="199">
@@ -2622,10 +2622,10 @@
         <v>0.394</v>
       </c>
       <c r="B199" t="n">
-        <v>1835.447148294448</v>
+        <v>1641.017138768657</v>
       </c>
       <c r="C199" t="n">
-        <v>1835447148.294448</v>
+        <v>1641017138.768657</v>
       </c>
     </row>
     <row r="200">
@@ -2633,10 +2633,10 @@
         <v>0.396</v>
       </c>
       <c r="B200" t="n">
-        <v>1835.928638278635</v>
+        <v>1642.629605602278</v>
       </c>
       <c r="C200" t="n">
-        <v>1835928638.278636</v>
+        <v>1642629605.602278</v>
       </c>
     </row>
     <row r="201">
@@ -2644,10 +2644,10 @@
         <v>0.398</v>
       </c>
       <c r="B201" t="n">
-        <v>1836.407832512334</v>
+        <v>1644.23553712751</v>
       </c>
       <c r="C201" t="n">
-        <v>1836407832.512334</v>
+        <v>1644235537.127511</v>
       </c>
     </row>
     <row r="202">
@@ -2655,10 +2655,10 @@
         <v>0.4</v>
       </c>
       <c r="B202" t="n">
-        <v>1836.884753374597</v>
+        <v>1645.834992411724</v>
       </c>
       <c r="C202" t="n">
-        <v>1836884753.374597</v>
+        <v>1645834992.411724</v>
       </c>
     </row>
     <row r="203">
@@ -2666,10 +2666,10 @@
         <v>0.402</v>
       </c>
       <c r="B203" t="n">
-        <v>1837.359422915988</v>
+        <v>1647.428029696895</v>
       </c>
       <c r="C203" t="n">
-        <v>1837359422.915988</v>
+        <v>1647428029.696895</v>
       </c>
     </row>
     <row r="204">
@@ -2677,10 +2677,10 @@
         <v>0.404</v>
       </c>
       <c r="B204" t="n">
-        <v>1837.831862865007</v>
+        <v>1649.014706415173</v>
       </c>
       <c r="C204" t="n">
-        <v>1837831862.865007</v>
+        <v>1649014706.415173</v>
       </c>
     </row>
     <row r="205">
@@ -2688,10 +2688,10 @@
         <v>0.406</v>
       </c>
       <c r="B205" t="n">
-        <v>1838.302094634354</v>
+        <v>1650.595079204082</v>
       </c>
       <c r="C205" t="n">
-        <v>1838302094.634354</v>
+        <v>1650595079.204082</v>
       </c>
     </row>
     <row r="206">
@@ -2699,10 +2699,10 @@
         <v>0.408</v>
       </c>
       <c r="B206" t="n">
-        <v>1838.770139327049</v>
+        <v>1652.169203921357</v>
       </c>
       <c r="C206" t="n">
-        <v>1838770139.327049</v>
+        <v>1652169203.921357</v>
       </c>
     </row>
     <row r="207">
@@ -2710,10 +2710,10 @@
         <v>0.41</v>
       </c>
       <c r="B207" t="n">
-        <v>1839.236017742404</v>
+        <v>1653.737135659436</v>
       </c>
       <c r="C207" t="n">
-        <v>1839236017.742404</v>
+        <v>1653737135.659436</v>
       </c>
     </row>
     <row r="208">
@@ -2721,10 +2721,10 @@
         <v>0.412</v>
       </c>
       <c r="B208" t="n">
-        <v>1839.69975038184</v>
+        <v>1655.298928759615</v>
       </c>
       <c r="C208" t="n">
-        <v>1839699750.38184</v>
+        <v>1655298928.759615</v>
       </c>
     </row>
     <row r="209">
@@ -2732,10 +2732,10 @@
         <v>0.414</v>
       </c>
       <c r="B209" t="n">
-        <v>1840.161357454579</v>
+        <v>1656.854636825872</v>
       </c>
       <c r="C209" t="n">
-        <v>1840161357.454579</v>
+        <v>1656854636.825872</v>
       </c>
     </row>
     <row r="210">
@@ -2743,10 +2743,10 @@
         <v>0.416</v>
       </c>
       <c r="B210" t="n">
-        <v>1840.620858883195</v>
+        <v>1658.404312738369</v>
       </c>
       <c r="C210" t="n">
-        <v>1840620858.883195</v>
+        <v>1658404312.738369</v>
       </c>
     </row>
     <row r="211">
@@ -2754,10 +2754,10 @@
         <v>0.418</v>
       </c>
       <c r="B211" t="n">
-        <v>1841.078274309027</v>
+        <v>1659.948008666651</v>
       </c>
       <c r="C211" t="n">
-        <v>1841078274.309027</v>
+        <v>1659948008.666651</v>
       </c>
     </row>
     <row r="212">
@@ -2765,10 +2765,10 @@
         <v>0.42</v>
       </c>
       <c r="B212" t="n">
-        <v>1841.533623097476</v>
+        <v>1661.485776082531</v>
       </c>
       <c r="C212" t="n">
-        <v>1841533623.097476</v>
+        <v>1661485776.082531</v>
       </c>
     </row>
     <row r="213">
@@ -2776,10 +2776,10 @@
         <v>0.422</v>
       </c>
       <c r="B213" t="n">
-        <v>1841.986924343172</v>
+        <v>1663.017665772692</v>
       </c>
       <c r="C213" t="n">
-        <v>1841986924.343172</v>
+        <v>1663017665.772692</v>
       </c>
     </row>
     <row r="214">
@@ -2787,10 +2787,10 @@
         <v>0.424</v>
       </c>
       <c r="B214" t="n">
-        <v>1842.438196875015</v>
+        <v>1664.543727851</v>
       </c>
       <c r="C214" t="n">
-        <v>1842438196.875015</v>
+        <v>1664543727.851</v>
       </c>
     </row>
     <row r="215">
@@ -2798,10 +2798,10 @@
         <v>0.426</v>
       </c>
       <c r="B215" t="n">
-        <v>1842.887459261108</v>
+        <v>1666.06401177053</v>
       </c>
       <c r="C215" t="n">
-        <v>1842887459.261108</v>
+        <v>1666064011.77053</v>
       </c>
     </row>
     <row r="216">
@@ -2809,10 +2809,10 @@
         <v>0.428</v>
       </c>
       <c r="B216" t="n">
-        <v>1843.334729813573</v>
+        <v>1667.578566335339</v>
       </c>
       <c r="C216" t="n">
-        <v>1843334729.813573</v>
+        <v>1667578566.335339</v>
       </c>
     </row>
     <row r="217">
@@ -2820,10 +2820,10 @@
         <v>0.43</v>
       </c>
       <c r="B217" t="n">
-        <v>1843.780026593253</v>
+        <v>1669.087439711959</v>
       </c>
       <c r="C217" t="n">
-        <v>1843780026.593253</v>
+        <v>1669087439.711959</v>
       </c>
     </row>
     <row r="218">
@@ -2831,10 +2831,10 @@
         <v>0.432</v>
       </c>
       <c r="B218" t="n">
-        <v>1844.223367414307</v>
+        <v>1670.590679440644</v>
       </c>
       <c r="C218" t="n">
-        <v>1844223367.414307</v>
+        <v>1670590679.440644</v>
       </c>
     </row>
     <row r="219">
@@ -2842,10 +2842,10 @@
         <v>0.434</v>
       </c>
       <c r="B219" t="n">
-        <v>1844.664769848705</v>
+        <v>1672.088332446363</v>
       </c>
       <c r="C219" t="n">
-        <v>1844664769.848705</v>
+        <v>1672088332.446363</v>
       </c>
     </row>
     <row r="220">
@@ -2853,10 +2853,10 @@
         <v>0.436</v>
       </c>
       <c r="B220" t="n">
-        <v>1845.104251230614</v>
+        <v>1673.580445049552</v>
       </c>
       <c r="C220" t="n">
-        <v>1845104251.230614</v>
+        <v>1673580445.049552</v>
       </c>
     </row>
     <row r="221">
@@ -2864,10 +2864,10 @@
         <v>0.438</v>
       </c>
       <c r="B221" t="n">
-        <v>1845.541828660691</v>
+        <v>1675.067062976633</v>
       </c>
       <c r="C221" t="n">
-        <v>1845541828.660691</v>
+        <v>1675067062.976633</v>
       </c>
     </row>
     <row r="222">
@@ -2875,10 +2875,10 @@
         <v>0.44</v>
       </c>
       <c r="B222" t="n">
-        <v>1845.977519010273</v>
+        <v>1676.548231370294</v>
       </c>
       <c r="C222" t="n">
-        <v>1845977519.010273</v>
+        <v>1676548231.370294</v>
       </c>
     </row>
     <row r="223">
@@ -2886,10 +2886,10 @@
         <v>0.442</v>
       </c>
       <c r="B223" t="n">
-        <v>1846.41133892548</v>
+        <v>1678.023994799556</v>
       </c>
       <c r="C223" t="n">
-        <v>1846411338.92548</v>
+        <v>1678023994.799556</v>
       </c>
     </row>
     <row r="224">
@@ -2897,10 +2897,10 @@
         <v>0.444</v>
       </c>
       <c r="B224" t="n">
-        <v>1846.843304831222</v>
+        <v>1679.494397269616</v>
       </c>
       <c r="C224" t="n">
-        <v>1846843304.831222</v>
+        <v>1679494397.269616</v>
       </c>
     </row>
     <row r="225">
@@ -2908,10 +2908,10 @@
         <v>0.446</v>
       </c>
       <c r="B225" t="n">
-        <v>1847.273432935116</v>
+        <v>1680.959482231474</v>
       </c>
       <c r="C225" t="n">
-        <v>1847273432.935116</v>
+        <v>1680959482.231474</v>
       </c>
     </row>
     <row r="226">
@@ -2919,10 +2919,10 @@
         <v>0.448</v>
       </c>
       <c r="B226" t="n">
-        <v>1847.701739231322</v>
+        <v>1682.419292591366</v>
       </c>
       <c r="C226" t="n">
-        <v>1847701739.231322</v>
+        <v>1682419292.591366</v>
       </c>
     </row>
     <row r="227">
@@ -2930,10 +2930,10 @@
         <v>0.45</v>
       </c>
       <c r="B227" t="n">
-        <v>1848.128239504289</v>
+        <v>1683.873870719978</v>
       </c>
       <c r="C227" t="n">
-        <v>1848128239.504289</v>
+        <v>1683873870.719978</v>
       </c>
     </row>
     <row r="228">
@@ -2941,10 +2941,10 @@
         <v>0.452</v>
       </c>
       <c r="B228" t="n">
-        <v>1848.552949332422</v>
+        <v>1685.323258461483</v>
       </c>
       <c r="C228" t="n">
-        <v>1848552949.332422</v>
+        <v>1685323258.461483</v>
       </c>
     </row>
     <row r="229">
@@ -2952,10 +2952,10 @@
         <v>0.454</v>
       </c>
       <c r="B229" t="n">
-        <v>1848.975884091667</v>
+        <v>1686.767497142367</v>
       </c>
       <c r="C229" t="n">
-        <v>1848975884.091667</v>
+        <v>1686767497.142367</v>
       </c>
     </row>
     <row r="230">
@@ -2963,10 +2963,10 @@
         <v>0.456</v>
       </c>
       <c r="B230" t="n">
-        <v>1849.397058959021</v>
+        <v>1688.206627580084</v>
       </c>
       <c r="C230" t="n">
-        <v>1849397058.959021</v>
+        <v>1688206627.580084</v>
       </c>
     </row>
     <row r="231">
@@ -2974,10 +2974,10 @@
         <v>0.458</v>
       </c>
       <c r="B231" t="n">
-        <v>1849.816488915961</v>
+        <v>1689.640690091521</v>
       </c>
       <c r="C231" t="n">
-        <v>1849816488.915961</v>
+        <v>1689640690.091522</v>
       </c>
     </row>
     <row r="232">
@@ -2985,10 +2985,10 @@
         <v>0.46</v>
       </c>
       <c r="B232" t="n">
-        <v>1850.234188751807</v>
+        <v>1691.069724501292</v>
       </c>
       <c r="C232" t="n">
-        <v>1850234188.751807</v>
+        <v>1691069724.501292</v>
       </c>
     </row>
     <row r="233">
@@ -2996,10 +2996,10 @@
         <v>0.462</v>
       </c>
       <c r="B233" t="n">
-        <v>1850.650173067005</v>
+        <v>1692.49377014985</v>
       </c>
       <c r="C233" t="n">
-        <v>1850650173.067005</v>
+        <v>1692493770.14985</v>
       </c>
     </row>
     <row r="234">
@@ -3007,10 +3007,10 @@
         <v>0.464</v>
       </c>
       <c r="B234" t="n">
-        <v>1851.064456276345</v>
+        <v>1693.912865901442</v>
       </c>
       <c r="C234" t="n">
-        <v>1851064456.276345</v>
+        <v>1693912865.901442</v>
       </c>
     </row>
     <row r="235">
@@ -3018,10 +3018,10 @@
         <v>0.466</v>
       </c>
       <c r="B235" t="n">
-        <v>1851.477052612108</v>
+        <v>1695.327050151892</v>
       </c>
       <c r="C235" t="n">
-        <v>1851477052.612108</v>
+        <v>1695327050.151892</v>
       </c>
     </row>
     <row r="236">
@@ -3029,10 +3029,10 @@
         <v>0.468</v>
       </c>
       <c r="B236" t="n">
-        <v>1851.887976127148</v>
+        <v>1696.736360836225</v>
       </c>
       <c r="C236" t="n">
-        <v>1851887976.127148</v>
+        <v>1696736360.836225</v>
       </c>
     </row>
     <row r="237">
@@ -3040,10 +3040,10 @@
         <v>0.47</v>
       </c>
       <c r="B237" t="n">
-        <v>1852.297240697907</v>
+        <v>1698.14083543614</v>
       </c>
       <c r="C237" t="n">
-        <v>1852297240.697907</v>
+        <v>1698140835.43614</v>
       </c>
     </row>
     <row r="238">
@@ -3051,10 +3051,10 @@
         <v>0.472</v>
       </c>
       <c r="B238" t="n">
-        <v>1852.704860027373</v>
+        <v>1699.540510987323</v>
       </c>
       <c r="C238" t="n">
-        <v>1852704860.027373</v>
+        <v>1699540510.987323</v>
       </c>
     </row>
     <row r="239">
@@ -3062,10 +3062,10 @@
         <v>0.474</v>
       </c>
       <c r="B239" t="n">
-        <v>1853.110847647964</v>
+        <v>1700.935424086619</v>
       </c>
       <c r="C239" t="n">
-        <v>1853110847.647964</v>
+        <v>1700935424.086619</v>
       </c>
     </row>
     <row r="240">
@@ -3073,10 +3073,10 @@
         <v>0.476</v>
       </c>
       <c r="B240" t="n">
-        <v>1853.515216924365</v>
+        <v>1702.325610899053</v>
       </c>
       <c r="C240" t="n">
-        <v>1853515216.924365</v>
+        <v>1702325610.899053</v>
       </c>
     </row>
     <row r="241">
@@ -3084,10 +3084,10 @@
         <v>0.478</v>
       </c>
       <c r="B241" t="n">
-        <v>1853.917981056299</v>
+        <v>1703.711107164713</v>
       </c>
       <c r="C241" t="n">
-        <v>1853917981.056299</v>
+        <v>1703711107.164712</v>
       </c>
     </row>
     <row r="242">
@@ -3095,10 +3095,10 @@
         <v>0.48</v>
       </c>
       <c r="B242" t="n">
-        <v>1854.319153081241</v>
+        <v>1705.091948205495</v>
       </c>
       <c r="C242" t="n">
-        <v>1854319153.081241</v>
+        <v>1705091948.205495</v>
       </c>
     </row>
     <row r="243">
@@ -3106,10 +3106,10 @@
         <v>0.482</v>
       </c>
       <c r="B243" t="n">
-        <v>1854.718745877081</v>
+        <v>1706.468168931712</v>
       </c>
       <c r="C243" t="n">
-        <v>1854718745.877081</v>
+        <v>1706468168.931712</v>
       </c>
     </row>
     <row r="244">
@@ -3117,10 +3117,10 @@
         <v>0.484</v>
       </c>
       <c r="B244" t="n">
-        <v>1855.116772164725</v>
+        <v>1707.839803848576</v>
       </c>
       <c r="C244" t="n">
-        <v>1855116772.164725</v>
+        <v>1707839803.848576</v>
       </c>
     </row>
     <row r="245">
@@ -3128,10 +3128,10 @@
         <v>0.486</v>
       </c>
       <c r="B245" t="n">
-        <v>1855.513244510651</v>
+        <v>1709.206887062539</v>
       </c>
       <c r="C245" t="n">
-        <v>1855513244.510651</v>
+        <v>1709206887.062539</v>
       </c>
     </row>
     <row r="246">
@@ -3139,10 +3139,10 @@
         <v>0.488</v>
       </c>
       <c r="B246" t="n">
-        <v>1855.908175329407</v>
+        <v>1710.569452287529</v>
       </c>
       <c r="C246" t="n">
-        <v>1855908175.329407</v>
+        <v>1710569452.287529</v>
       </c>
     </row>
     <row r="247">
@@ -3150,10 +3150,10 @@
         <v>0.49</v>
       </c>
       <c r="B247" t="n">
-        <v>1856.301576886062</v>
+        <v>1711.927532851046</v>
       </c>
       <c r="C247" t="n">
-        <v>1856301576.886062</v>
+        <v>1711927532.851046</v>
       </c>
     </row>
     <row r="248">
@@ -3161,10 +3161,10 @@
         <v>0.492</v>
       </c>
       <c r="B248" t="n">
-        <v>1856.693461298605</v>
+        <v>1713.281161700145</v>
       </c>
       <c r="C248" t="n">
-        <v>1856693461.298605</v>
+        <v>1713281161.700145</v>
       </c>
     </row>
     <row r="249">
@@ -3172,10 +3172,10 @@
         <v>0.494</v>
       </c>
       <c r="B249" t="n">
-        <v>1857.083840540301</v>
+        <v>1714.630371407308</v>
       </c>
       <c r="C249" t="n">
-        <v>1857083840.540301</v>
+        <v>1714630371.407308</v>
       </c>
     </row>
     <row r="250">
@@ -3183,10 +3183,10 @@
         <v>0.496</v>
       </c>
       <c r="B250" t="n">
-        <v>1857.47272644199</v>
+        <v>1715.975194176193</v>
       </c>
       <c r="C250" t="n">
-        <v>1857472726.44199</v>
+        <v>1715975194.176193</v>
       </c>
     </row>
     <row r="251">
@@ -3194,10 +3194,10 @@
         <v>0.498</v>
       </c>
       <c r="B251" t="n">
-        <v>1857.860130694356</v>
+        <v>1717.315661847275</v>
       </c>
       <c r="C251" t="n">
-        <v>1857860130.694355</v>
+        <v>1717315661.847275</v>
       </c>
     </row>
     <row r="252">
@@ -3205,10 +3205,10 @@
         <v>0.5</v>
       </c>
       <c r="B252" t="n">
-        <v>1858.246064850131</v>
+        <v>1718.651805903385</v>
       </c>
       <c r="C252" t="n">
-        <v>1858246064.850131</v>
+        <v>1718651805.903385</v>
       </c>
     </row>
     <row r="253">
@@ -3216,10 +3216,10 @@
         <v>0.505</v>
       </c>
       <c r="B253" t="n">
-        <v>1859.204543162399</v>
+        <v>1721.973453670373</v>
       </c>
       <c r="C253" t="n">
-        <v>1859204543.162399</v>
+        <v>1721973453.670373</v>
       </c>
     </row>
     <row r="254">
@@ -3227,10 +3227,10 @@
         <v>0.51</v>
       </c>
       <c r="B254" t="n">
-        <v>1860.154079139623</v>
+        <v>1725.268749498273</v>
       </c>
       <c r="C254" t="n">
-        <v>1860154079.139623</v>
+        <v>1725268749.498273</v>
       </c>
     </row>
     <row r="255">
@@ -3238,10 +3238,10 @@
         <v>0.515</v>
       </c>
       <c r="B255" t="n">
-        <v>1861.094842538808</v>
+        <v>1728.538157372732</v>
       </c>
       <c r="C255" t="n">
-        <v>1861094842.538808</v>
+        <v>1728538157.372732</v>
       </c>
     </row>
     <row r="256">
@@ -3249,10 +3249,10 @@
         <v>0.52</v>
       </c>
       <c r="B256" t="n">
-        <v>1862.026998287176</v>
+        <v>1731.782128707948</v>
       </c>
       <c r="C256" t="n">
-        <v>1862026998.287176</v>
+        <v>1731782128.707948</v>
       </c>
     </row>
     <row r="257">
@@ -3260,10 +3260,10 @@
         <v>0.525</v>
       </c>
       <c r="B257" t="n">
-        <v>1862.950706664433</v>
+        <v>1735.001102804278</v>
       </c>
       <c r="C257" t="n">
-        <v>1862950706.664433</v>
+        <v>1735001102.804278</v>
       </c>
     </row>
     <row r="258">
@@ -3271,10 +3271,10 @@
         <v>0.53</v>
       </c>
       <c r="B258" t="n">
-        <v>1863.866123476497</v>
+        <v>1738.195507285004</v>
       </c>
       <c r="C258" t="n">
-        <v>1863866123.476497</v>
+        <v>1738195507.285004</v>
       </c>
     </row>
     <row r="259">
@@ -3282,10 +3282,10 @@
         <v>0.535</v>
       </c>
       <c r="B259" t="n">
-        <v>1864.773400221164</v>
+        <v>1741.365758513406</v>
       </c>
       <c r="C259" t="n">
-        <v>1864773400.221164</v>
+        <v>1741365758.513406</v>
       </c>
     </row>
     <row r="260">
@@ -3293,10 +3293,10 @@
         <v>0.54</v>
       </c>
       <c r="B260" t="n">
-        <v>1865.672684246151</v>
+        <v>1744.512261991198</v>
       </c>
       <c r="C260" t="n">
-        <v>1865672684.246151</v>
+        <v>1744512261.991198</v>
       </c>
     </row>
     <row r="261">
@@ -3304,10 +3304,10 @@
         <v>0.545</v>
       </c>
       <c r="B261" t="n">
-        <v>1866.564118899947</v>
+        <v>1747.635412739322</v>
       </c>
       <c r="C261" t="n">
-        <v>1866564118.899947</v>
+        <v>1747635412.739322</v>
       </c>
     </row>
     <row r="262">
@@ -3315,10 +3315,10 @@
         <v>0.55</v>
       </c>
       <c r="B262" t="n">
-        <v>1867.447843675848</v>
+        <v>1750.735595662041</v>
       </c>
       <c r="C262" t="n">
-        <v>1867447843.675848</v>
+        <v>1750735595.662041</v>
       </c>
     </row>
     <row r="263">
@@ -3326,10 +3326,10 @@
         <v>0.555</v>
       </c>
       <c r="B263" t="n">
-        <v>1868.323994349559</v>
+        <v>1753.813185895197</v>
       </c>
       <c r="C263" t="n">
-        <v>1868323994.349559</v>
+        <v>1753813185.895197</v>
       </c>
     </row>
     <row r="264">
@@ -3337,10 +3337,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B264" t="n">
-        <v>1869.192703110682</v>
+        <v>1756.868549139481</v>
       </c>
       <c r="C264" t="n">
-        <v>1869192703.110682</v>
+        <v>1756868549.139481</v>
       </c>
     </row>
     <row r="265">
@@ -3348,10 +3348,10 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="B265" t="n">
-        <v>1870.054098688438</v>
+        <v>1759.902041979454</v>
       </c>
       <c r="C265" t="n">
-        <v>1870054098.688438</v>
+        <v>1759902041.979454</v>
       </c>
     </row>
     <row r="266">
@@ -3359,10 +3359,10 @@
         <v>0.57</v>
       </c>
       <c r="B266" t="n">
-        <v>1870.908306471911</v>
+        <v>1762.91401218908</v>
       </c>
       <c r="C266" t="n">
-        <v>1870908306.471911</v>
+        <v>1762914012.18908</v>
       </c>
     </row>
     <row r="267">
@@ -3370,10 +3370,10 @@
         <v>0.575</v>
       </c>
       <c r="B267" t="n">
-        <v>1871.755448625097</v>
+        <v>1765.904799024436</v>
       </c>
       <c r="C267" t="n">
-        <v>1871755448.625098</v>
+        <v>1765904799.024436</v>
       </c>
     </row>
     <row r="268">
@@ -3381,10 +3381,10 @@
         <v>0.58</v>
       </c>
       <c r="B268" t="n">
-        <v>1872.595644197037</v>
+        <v>1768.874733504248</v>
       </c>
       <c r="C268" t="n">
-        <v>1872595644.197037</v>
+        <v>1768874733.504248</v>
       </c>
     </row>
     <row r="269">
@@ -3392,10 +3392,10 @@
         <v>0.585</v>
       </c>
       <c r="B269" t="n">
-        <v>1873.429009227267</v>
+        <v>1771.824138678864</v>
       </c>
       <c r="C269" t="n">
-        <v>1873429009.227267</v>
+        <v>1771824138.678864</v>
       </c>
     </row>
     <row r="270">
@@ -3403,10 +3403,10 @@
         <v>0.59</v>
       </c>
       <c r="B270" t="n">
-        <v>1874.255656846841</v>
+        <v>1774.753329888223</v>
       </c>
       <c r="C270" t="n">
-        <v>1874255656.846841</v>
+        <v>1774753329.888223</v>
       </c>
     </row>
     <row r="271">
@@ -3414,10 +3414,10 @@
         <v>0.595</v>
       </c>
       <c r="B271" t="n">
-        <v>1875.075697375137</v>
+        <v>1777.662615009374</v>
       </c>
       <c r="C271" t="n">
-        <v>1875075697.375137</v>
+        <v>1777662615.009374</v>
       </c>
     </row>
     <row r="272">
@@ -3425,10 +3425,10 @@
         <v>0.6</v>
       </c>
       <c r="B272" t="n">
-        <v>1875.889238412654</v>
+        <v>1780.55229469404</v>
       </c>
       <c r="C272" t="n">
-        <v>1875889238.412654</v>
+        <v>1780552294.694041</v>
       </c>
     </row>
     <row r="273">
@@ -3436,10 +3436,10 @@
         <v>0.605</v>
       </c>
       <c r="B273" t="n">
-        <v>1876.696384930009</v>
+        <v>1783.42266259672</v>
       </c>
       <c r="C273" t="n">
-        <v>1876696384.930009</v>
+        <v>1783422662.59672</v>
       </c>
     </row>
     <row r="274">
@@ -3447,10 +3447,10 @@
         <v>0.61</v>
       </c>
       <c r="B274" t="n">
-        <v>1877.49723935331</v>
+        <v>1786.274005593759</v>
       </c>
       <c r="C274" t="n">
-        <v>1877497239.35331</v>
+        <v>1786274005.593759</v>
       </c>
     </row>
     <row r="275">
@@ -3458,10 +3458,10 @@
         <v>0.615</v>
       </c>
       <c r="B275" t="n">
-        <v>1878.291901646082</v>
+        <v>1789.106603993841</v>
       </c>
       <c r="C275" t="n">
-        <v>1878291901.646082</v>
+        <v>1789106603.993841</v>
       </c>
     </row>
     <row r="276">
@@ -3469,10 +3469,10 @@
         <v>0.62</v>
       </c>
       <c r="B276" t="n">
-        <v>1879.080469387918</v>
+        <v>1791.920731740284</v>
       </c>
       <c r="C276" t="n">
-        <v>1879080469.387918</v>
+        <v>1791920731.740284</v>
       </c>
     </row>
     <row r="277">
@@ -3480,10 +3480,10 @@
         <v>0.625</v>
       </c>
       <c r="B277" t="n">
-        <v>1879.863037850004</v>
+        <v>1794.71665660554</v>
       </c>
       <c r="C277" t="n">
-        <v>1879863037.850004</v>
+        <v>1794716656.605541</v>
       </c>
     </row>
     <row r="278">
@@ -3491,10 +3491,10 @@
         <v>0.63</v>
       </c>
       <c r="B278" t="n">
-        <v>1880.63970006767</v>
+        <v>1797.49464037824</v>
       </c>
       <c r="C278" t="n">
-        <v>1880639700.06767</v>
+        <v>1797494640.37824</v>
       </c>
     </row>
     <row r="279">
@@ -3502,10 +3502,10 @@
         <v>0.635</v>
       </c>
       <c r="B279" t="n">
-        <v>1881.410546910104</v>
+        <v>1800.254939043141</v>
       </c>
       <c r="C279" t="n">
-        <v>1881410546.910104</v>
+        <v>1800254939.043141</v>
       </c>
     </row>
     <row r="280">
@@ -3513,10 +3513,10 @@
         <v>0.64</v>
       </c>
       <c r="B280" t="n">
-        <v>1882.175667147369</v>
+        <v>1802.997802954294</v>
       </c>
       <c r="C280" t="n">
-        <v>1882175667.147369</v>
+        <v>1802997802.954294</v>
       </c>
     </row>
     <row r="281">
@@ -3524,10 +3524,10 @@
         <v>0.645</v>
       </c>
       <c r="B281" t="n">
-        <v>1882.935147514833</v>
+        <v>1805.723477001737</v>
       </c>
       <c r="C281" t="n">
-        <v>1882935147.514833</v>
+        <v>1805723477.001737</v>
       </c>
     </row>
     <row r="282">
@@ -3535,10 +3535,10 @@
         <v>0.65</v>
       </c>
       <c r="B282" t="n">
-        <v>1883.689072775147</v>
+        <v>1808.432200772005</v>
       </c>
       <c r="C282" t="n">
-        <v>1883689072.775147</v>
+        <v>1808432200.772006</v>
       </c>
     </row>
     <row r="283">
@@ -3546,10 +3546,10 @@
         <v>0.655</v>
       </c>
       <c r="B283" t="n">
-        <v>1884.437525777872</v>
+        <v>1811.12420870273</v>
       </c>
       <c r="C283" t="n">
-        <v>1884437525.777872</v>
+        <v>1811124208.70273</v>
       </c>
     </row>
     <row r="284">
@@ -3557,10 +3557,10 @@
         <v>0.66</v>
       </c>
       <c r="B284" t="n">
-        <v>1885.180587516861</v>
+        <v>1813.799730231594</v>
       </c>
       <c r="C284" t="n">
-        <v>1885180587.516861</v>
+        <v>1813799730.231594</v>
       </c>
     </row>
     <row r="285">
@@ -3568,10 +3568,10 @@
         <v>0.665</v>
       </c>
       <c r="B285" t="n">
-        <v>1885.918337185508</v>
+        <v>1816.458989939884</v>
       </c>
       <c r="C285" t="n">
-        <v>1885918337.185508</v>
+        <v>1816458989.939884</v>
       </c>
     </row>
     <row r="286">
@@ -3579,10 +3579,10 @@
         <v>0.67</v>
       </c>
       <c r="B286" t="n">
-        <v>1886.650852229944</v>
+        <v>1819.102207690879</v>
       </c>
       <c r="C286" t="n">
-        <v>1886650852.229944</v>
+        <v>1819102207.690879</v>
       </c>
     </row>
     <row r="287">
@@ -3590,10 +3590,10 @@
         <v>0.675</v>
       </c>
       <c r="B287" t="n">
-        <v>1887.378208400284</v>
+        <v>1821.729598763292</v>
       </c>
       <c r="C287" t="n">
-        <v>1887378208.400284</v>
+        <v>1821729598.763292</v>
       </c>
     </row>
     <row r="288">
@@ -3601,10 +3601,10 @@
         <v>0.68</v>
       </c>
       <c r="B288" t="n">
-        <v>1888.100479799994</v>
+        <v>1824.341373979988</v>
       </c>
       <c r="C288" t="n">
-        <v>1888100479.799994</v>
+        <v>1824341373.979988</v>
       </c>
     </row>
     <row r="289">
@@ -3612,10 +3612,10 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="B289" t="n">
-        <v>1888.817738933482</v>
+        <v>1826.937739832164</v>
       </c>
       <c r="C289" t="n">
-        <v>1888817738.933482</v>
+        <v>1826937739.832165</v>
       </c>
     </row>
     <row r="290">
@@ -3623,10 +3623,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="B290" t="n">
-        <v>1889.530056751971</v>
+        <v>1829.518898599199</v>
       </c>
       <c r="C290" t="n">
-        <v>1889530056.751971</v>
+        <v>1829518898.599199</v>
       </c>
     </row>
     <row r="291">
@@ -3634,10 +3634,10 @@
         <v>0.695</v>
       </c>
       <c r="B291" t="n">
-        <v>1890.237502697736</v>
+        <v>1832.085048464337</v>
       </c>
       <c r="C291" t="n">
-        <v>1890237502.697736</v>
+        <v>1832085048.464337</v>
       </c>
     </row>
     <row r="292">
@@ -3645,10 +3645,10 @@
         <v>0.7</v>
       </c>
       <c r="B292" t="n">
-        <v>1890.940144746772</v>
+        <v>1834.636383626394</v>
       </c>
       <c r="C292" t="n">
-        <v>1890940144.746772</v>
+        <v>1834636383.626394</v>
       </c>
     </row>
     <row r="293">
@@ -3656,10 +3656,10 @@
         <v>0.705</v>
       </c>
       <c r="B293" t="n">
-        <v>1891.638049449965</v>
+        <v>1837.173094407642</v>
       </c>
       <c r="C293" t="n">
-        <v>1891638049.449965</v>
+        <v>1837173094.407642</v>
       </c>
     </row>
     <row r="294">
@@ -3667,10 +3667,10 @@
         <v>0.71</v>
       </c>
       <c r="B294" t="n">
-        <v>1892.331281972816</v>
+        <v>1839.695367358035</v>
       </c>
       <c r="C294" t="n">
-        <v>1892331281.972816</v>
+        <v>1839695367.358035</v>
       </c>
     </row>
     <row r="295">
@@ -3678,10 +3678,10 @@
         <v>0.715</v>
       </c>
       <c r="B295" t="n">
-        <v>1893.019906133798</v>
+        <v>1842.203385355913</v>
       </c>
       <c r="C295" t="n">
-        <v>1893019906.133798</v>
+        <v>1842203385.355913</v>
       </c>
     </row>
     <row r="296">
@@ -3689,10 +3689,10 @@
         <v>0.72</v>
       </c>
       <c r="B296" t="n">
-        <v>1893.703984441383</v>
+        <v>1844.69732770534</v>
       </c>
       <c r="C296" t="n">
-        <v>1893703984.441383</v>
+        <v>1844697327.70534</v>
       </c>
     </row>
     <row r="297">
@@ -3700,10 +3700,10 @@
         <v>0.725</v>
       </c>
       <c r="B297" t="n">
-        <v>1894.383578129803</v>
+        <v>1847.17737023021</v>
       </c>
       <c r="C297" t="n">
-        <v>1894383578.129803</v>
+        <v>1847177370.23021</v>
       </c>
     </row>
     <row r="298">
@@ -3711,10 +3711,10 @@
         <v>0.73</v>
       </c>
       <c r="B298" t="n">
-        <v>1895.058747193601</v>
+        <v>1849.643685365236</v>
       </c>
       <c r="C298" t="n">
-        <v>1895058747.193601</v>
+        <v>1849643685.365236</v>
       </c>
     </row>
     <row r="299">
@@ -3722,10 +3722,10 @@
         <v>0.735</v>
       </c>
       <c r="B299" t="n">
-        <v>1895.72955042101</v>
+        <v>1852.096442243962</v>
       </c>
       <c r="C299" t="n">
-        <v>1895729550.42101</v>
+        <v>1852096442.243962</v>
       </c>
     </row>
     <row r="300">
@@ -3733,10 +3733,10 @@
         <v>0.74</v>
       </c>
       <c r="B300" t="n">
-        <v>1896.396045426218</v>
+        <v>1854.535806783909</v>
       </c>
       <c r="C300" t="n">
-        <v>1896396045.426218</v>
+        <v>1854535806.783909</v>
       </c>
     </row>
     <row r="301">
@@ -3744,10 +3744,10 @@
         <v>0.745</v>
       </c>
       <c r="B301" t="n">
-        <v>1897.058288680554</v>
+        <v>1856.961941768963</v>
       </c>
       <c r="C301" t="n">
-        <v>1897058288.680554</v>
+        <v>1856961941.768963</v>
       </c>
     </row>
     <row r="302">
@@ -3755,10 +3755,10 @@
         <v>0.75</v>
       </c>
       <c r="B302" t="n">
-        <v>1897.716335542648</v>
+        <v>1859.375006929116</v>
       </c>
       <c r="C302" t="n">
-        <v>1897716335.542648</v>
+        <v>1859375006.929116</v>
       </c>
     </row>
     <row r="303">
@@ -3766,10 +3766,10 @@
         <v>0.755</v>
       </c>
       <c r="B303" t="n">
-        <v>1898.370240287594</v>
+        <v>1861.775159017667</v>
       </c>
       <c r="C303" t="n">
-        <v>1898370240.287594</v>
+        <v>1861775159.017667</v>
       </c>
     </row>
     <row r="304">
@@ -3777,10 +3777,10 @@
         <v>0.76</v>
       </c>
       <c r="B304" t="n">
-        <v>1899.020056135169</v>
+        <v>1864.162551885965</v>
       </c>
       <c r="C304" t="n">
-        <v>1899020056.135169</v>
+        <v>1864162551.885965</v>
       </c>
     </row>
     <row r="305">
@@ -3788,10 +3788,10 @@
         <v>0.765</v>
       </c>
       <c r="B305" t="n">
-        <v>1899.665835277128</v>
+        <v>1866.537336555805</v>
       </c>
       <c r="C305" t="n">
-        <v>1899665835.277128</v>
+        <v>1866537336.555805</v>
       </c>
     </row>
     <row r="306">
@@ -3799,10 +3799,10 @@
         <v>0.77</v>
       </c>
       <c r="B306" t="n">
-        <v>1900.307628903628</v>
+        <v>1868.899661289562</v>
       </c>
       <c r="C306" t="n">
-        <v>1900307628.903628</v>
+        <v>1868899661.289562</v>
       </c>
     </row>
     <row r="307">
@@ -3810,10 +3810,10 @@
         <v>0.775</v>
       </c>
       <c r="B307" t="n">
-        <v>1900.945487228801</v>
+        <v>1871.249671658129</v>
       </c>
       <c r="C307" t="n">
-        <v>1900945487.228801</v>
+        <v>1871249671.658129</v>
       </c>
     </row>
     <row r="308">
@@ -3821,10 +3821,10 @@
         <v>0.78</v>
       </c>
       <c r="B308" t="n">
-        <v>1901.579459515519</v>
+        <v>1873.587510606773</v>
       </c>
       <c r="C308" t="n">
-        <v>1901579459.515519</v>
+        <v>1873587510.606773</v>
       </c>
     </row>
     <row r="309">
@@ -3832,10 +3832,10 @@
         <v>0.785</v>
       </c>
       <c r="B309" t="n">
-        <v>1902.209594099368</v>
+        <v>1875.913318518959</v>
       </c>
       <c r="C309" t="n">
-        <v>1902209594.099368</v>
+        <v>1875913318.518959</v>
       </c>
     </row>
     <row r="310">
@@ -3843,10 +3843,10 @@
         <v>0.79</v>
       </c>
       <c r="B310" t="n">
-        <v>1902.83593841188</v>
+        <v>1878.227233278233</v>
       </c>
       <c r="C310" t="n">
-        <v>1902835938.41188</v>
+        <v>1878227233.278233</v>
       </c>
     </row>
     <row r="311">
@@ -3854,10 +3854,10 @@
         <v>0.795</v>
       </c>
       <c r="B311" t="n">
-        <v>1903.458539003032</v>
+        <v>1880.529390328221</v>
       </c>
       <c r="C311" t="n">
-        <v>1903458539.003031</v>
+        <v>1880529390.328221</v>
       </c>
     </row>
     <row r="312">
@@ -3865,10 +3865,10 @@
         <v>0.8</v>
       </c>
       <c r="B312" t="n">
-        <v>1904.077441563052</v>
+        <v>1882.819922730833</v>
       </c>
       <c r="C312" t="n">
-        <v>1904077441.563052</v>
+        <v>1882819922.730833</v>
       </c>
     </row>
     <row r="313">
@@ -3876,10 +3876,10 @@
         <v>0.805</v>
       </c>
       <c r="B313" t="n">
-        <v>1904.692690943552</v>
+        <v>1885.098961222715</v>
       </c>
       <c r="C313" t="n">
-        <v>1904692690.943552</v>
+        <v>1885098961.222715</v>
       </c>
     </row>
     <row r="314">
@@ -3887,10 +3887,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B314" t="n">
-        <v>1905.304331178014</v>
+        <v>1887.366634270026</v>
       </c>
       <c r="C314" t="n">
-        <v>1905304331.178014</v>
+        <v>1887366634.270026</v>
       </c>
     </row>
     <row r="315">
@@ -3898,10 +3898,10 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="B315" t="n">
-        <v>1905.912405501651</v>
+        <v>1889.623068121592</v>
       </c>
       <c r="C315" t="n">
-        <v>1905912405.501651</v>
+        <v>1889623068.121592</v>
       </c>
     </row>
     <row r="316">
@@ -3909,10 +3909,10 @@
         <v>0.82</v>
       </c>
       <c r="B316" t="n">
-        <v>1906.51695637067</v>
+        <v>1891.868386860507</v>
       </c>
       <c r="C316" t="n">
-        <v>1906516956.37067</v>
+        <v>1891868386.860507</v>
       </c>
     </row>
     <row r="317">
@@ -3920,10 +3920,10 @@
         <v>0.825</v>
       </c>
       <c r="B317" t="n">
-        <v>1907.118025480956</v>
+        <v>1894.102712454214</v>
       </c>
       <c r="C317" t="n">
-        <v>1907118025.480957</v>
+        <v>1894102712.454214</v>
       </c>
     </row>
     <row r="318">
@@ -3931,10 +3931,10 @@
         <v>0.83</v>
       </c>
       <c r="B318" t="n">
-        <v>1907.715653786195</v>
+        <v>1896.326164803141</v>
       </c>
       <c r="C318" t="n">
-        <v>1907715653.786195</v>
+        <v>1896326164.803141</v>
       </c>
     </row>
     <row r="319">
@@ -3942,10 +3942,10 @@
         <v>0.835</v>
       </c>
       <c r="B319" t="n">
-        <v>1908.309881515462</v>
+        <v>1898.538861787936</v>
       </c>
       <c r="C319" t="n">
-        <v>1908309881.515462</v>
+        <v>1898538861.787936</v>
       </c>
     </row>
     <row r="320">
@@ -3953,10 +3953,10 @@
         <v>0.84</v>
       </c>
       <c r="B320" t="n">
-        <v>1908.900748190285</v>
+        <v>1900.740919315337</v>
       </c>
       <c r="C320" t="n">
-        <v>1908900748.190285</v>
+        <v>1900740919.315337</v>
       </c>
     </row>
     <row r="321">
@@ -3964,10 +3964,10 @@
         <v>0.845</v>
       </c>
       <c r="B321" t="n">
-        <v>1909.488292641219</v>
+        <v>1902.932451362742</v>
       </c>
       <c r="C321" t="n">
-        <v>1909488292.641219</v>
+        <v>1902932451.362742</v>
       </c>
     </row>
     <row r="322">
@@ -3975,10 +3975,10 @@
         <v>0.85</v>
       </c>
       <c r="B322" t="n">
-        <v>1910.072553023919</v>
+        <v>1905.113570021517</v>
       </c>
       <c r="C322" t="n">
-        <v>1910072553.023919</v>
+        <v>1905113570.021517</v>
       </c>
     </row>
     <row r="323">
@@ -3986,10 +3986,10 @@
         <v>0.855</v>
       </c>
       <c r="B323" t="n">
-        <v>1910.653566834765</v>
+        <v>1907.284385539076</v>
       </c>
       <c r="C323" t="n">
-        <v>1910653566.834765</v>
+        <v>1907284385.539076</v>
       </c>
     </row>
     <row r="324">
@@ -3997,10 +3997,10 @@
         <v>0.86</v>
       </c>
       <c r="B324" t="n">
-        <v>1911.231370926026</v>
+        <v>1909.445006359788</v>
       </c>
       <c r="C324" t="n">
-        <v>1911231370.926026</v>
+        <v>1909445006.359788</v>
       </c>
     </row>
     <row r="325">
@@ -4008,10 +4008,10 @@
         <v>0.865</v>
       </c>
       <c r="B325" t="n">
-        <v>1911.806001520591</v>
+        <v>1911.595539164746</v>
       </c>
       <c r="C325" t="n">
-        <v>1911806001.520591</v>
+        <v>1911595539.164747</v>
       </c>
     </row>
     <row r="326">
@@ -4019,10 +4019,10 @@
         <v>0.87</v>
       </c>
       <c r="B326" t="n">
-        <v>1912.377494226281</v>
+        <v>1913.73608891043</v>
       </c>
       <c r="C326" t="n">
-        <v>1912377494.226281</v>
+        <v>1913736088.91043</v>
       </c>
     </row>
     <row r="327">
@@ -4030,10 +4030,10 @@
         <v>0.875</v>
       </c>
       <c r="B327" t="n">
-        <v>1912.945884049758</v>
+        <v>1915.866758866307</v>
       </c>
       <c r="C327" t="n">
-        <v>1912945884.049758</v>
+        <v>1915866758.866307</v>
       </c>
     </row>
     <row r="328">
@@ -4041,10 +4041,10 @@
         <v>0.88</v>
       </c>
       <c r="B328" t="n">
-        <v>1913.511205410034</v>
+        <v>1917.987650651404</v>
       </c>
       <c r="C328" t="n">
-        <v>1913511205.410034</v>
+        <v>1917987650.651404</v>
       </c>
     </row>
     <row r="329">
@@ -4052,10 +4052,10 @@
         <v>0.885</v>
       </c>
       <c r="B329" t="n">
-        <v>1914.073492151615</v>
+        <v>1920.098864269884</v>
       </c>
       <c r="C329" t="n">
-        <v>1914073492.151615</v>
+        <v>1920098864.269884</v>
       </c>
     </row>
     <row r="330">
@@ -4063,10 +4063,10 @@
         <v>0.89</v>
       </c>
       <c r="B330" t="n">
-        <v>1914.632777557262</v>
+        <v>1922.200498145659</v>
       </c>
       <c r="C330" t="n">
-        <v>1914632777.557262</v>
+        <v>1922200498.145659</v>
       </c>
     </row>
     <row r="331">
@@ -4074,10 +4074,10 @@
         <v>0.895</v>
       </c>
       <c r="B331" t="n">
-        <v>1915.189094360415</v>
+        <v>1924.292649156071</v>
       </c>
       <c r="C331" t="n">
-        <v>1915189094.360415</v>
+        <v>1924292649.156071</v>
       </c>
     </row>
     <row r="332">
@@ -4085,10 +4085,10 @@
         <v>0.9</v>
       </c>
       <c r="B332" t="n">
-        <v>1915.742474757264</v>
+        <v>1926.375412664672</v>
       </c>
       <c r="C332" t="n">
-        <v>1915742474.757264</v>
+        <v>1926375412.664672</v>
       </c>
     </row>
     <row r="333">
@@ -4096,10 +4096,10 @@
         <v>0.905</v>
       </c>
       <c r="B333" t="n">
-        <v>1916.292950418492</v>
+        <v>1928.44888255313</v>
       </c>
       <c r="C333" t="n">
-        <v>1916292950.418492</v>
+        <v>1928448882.55313</v>
       </c>
     </row>
     <row r="334">
@@ -4107,10 +4107,10 @@
         <v>0.91</v>
       </c>
       <c r="B334" t="n">
-        <v>1916.840552500699</v>
+        <v>1930.513151252299</v>
       </c>
       <c r="C334" t="n">
-        <v>1916840552.500699</v>
+        <v>1930513151.252299</v>
       </c>
     </row>
     <row r="335">
@@ -4118,10 +4118,10 @@
         <v>0.915</v>
       </c>
       <c r="B335" t="n">
-        <v>1917.385311657517</v>
+        <v>1932.568309772453</v>
       </c>
       <c r="C335" t="n">
-        <v>1917385311.657517</v>
+        <v>1932568309.772453</v>
       </c>
     </row>
     <row r="336">
@@ -4129,10 +4129,10 @@
         <v>0.92</v>
       </c>
       <c r="B336" t="n">
-        <v>1917.927258050422</v>
+        <v>1934.614447732748</v>
       </c>
       <c r="C336" t="n">
-        <v>1917927258.050422</v>
+        <v>1934614447.732749</v>
       </c>
     </row>
     <row r="337">
@@ -4140,10 +4140,10 @@
         <v>0.925</v>
       </c>
       <c r="B337" t="n">
-        <v>1918.466421359262</v>
+        <v>1936.651653389907</v>
       </c>
       <c r="C337" t="n">
-        <v>1918466421.359262</v>
+        <v>1936651653.389907</v>
       </c>
     </row>
     <row r="338">
@@ -4151,10 +4151,10 @@
         <v>0.93</v>
       </c>
       <c r="B338" t="n">
-        <v>1919.0028307925</v>
+        <v>1938.680013666159</v>
       </c>
       <c r="C338" t="n">
-        <v>1919002830.7925</v>
+        <v>1938680013.666159</v>
       </c>
     </row>
     <row r="339">
@@ -4162,10 +4162,10 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="B339" t="n">
-        <v>1919.536515097185</v>
+        <v>1940.699614176467</v>
       </c>
       <c r="C339" t="n">
-        <v>1919536515.097185</v>
+        <v>1940699614.176467</v>
       </c>
     </row>
     <row r="340">
@@ -4173,10 +4173,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="B340" t="n">
-        <v>1920.067502568663</v>
+        <v>1942.710539255054</v>
       </c>
       <c r="C340" t="n">
-        <v>1920067502.568663</v>
+        <v>1942710539.255054</v>
       </c>
     </row>
     <row r="341">
@@ -4184,10 +4184,10 @@
         <v>0.945</v>
       </c>
       <c r="B341" t="n">
-        <v>1920.59582106003</v>
+        <v>1944.712871981251</v>
       </c>
       <c r="C341" t="n">
-        <v>1920595821.06003</v>
+        <v>1944712871.981251</v>
       </c>
     </row>
     <row r="342">
@@ -4195,10 +4195,10 @@
         <v>0.95</v>
       </c>
       <c r="B342" t="n">
-        <v>1921.121497991344</v>
+        <v>1946.70669420469</v>
       </c>
       <c r="C342" t="n">
-        <v>1921121497.991344</v>
+        <v>1946706694.20469</v>
       </c>
     </row>
     <row r="343">
@@ -4206,10 +4206,10 @@
         <v>0.955</v>
       </c>
       <c r="B343" t="n">
-        <v>1921.64456035859</v>
+        <v>1948.692086569869</v>
       </c>
       <c r="C343" t="n">
-        <v>1921644560.35859</v>
+        <v>1948692086.569869</v>
       </c>
     </row>
     <row r="344">
@@ -4217,10 +4217,10 @@
         <v>0.96</v>
       </c>
       <c r="B344" t="n">
-        <v>1922.165034742418</v>
+        <v>1950.669128540088</v>
       </c>
       <c r="C344" t="n">
-        <v>1922165034.742418</v>
+        <v>1950669128.540088</v>
       </c>
     </row>
     <row r="345">
@@ -4228,10 +4228,10 @@
         <v>0.965</v>
       </c>
       <c r="B345" t="n">
-        <v>1922.682947316658</v>
+        <v>1952.637898420802</v>
       </c>
       <c r="C345" t="n">
-        <v>1922682947.316658</v>
+        <v>1952637898.420802</v>
       </c>
     </row>
     <row r="346">
@@ -4239,10 +4239,10 @@
         <v>0.97</v>
       </c>
       <c r="B346" t="n">
-        <v>1923.198323856615</v>
+        <v>1954.598473382379</v>
       </c>
       <c r="C346" t="n">
-        <v>1923198323.856615</v>
+        <v>1954598473.382379</v>
       </c>
     </row>
     <row r="347">
@@ -4250,10 +4250,10 @@
         <v>0.975</v>
       </c>
       <c r="B347" t="n">
-        <v>1923.711189747152</v>
+        <v>1956.550929482309</v>
       </c>
       <c r="C347" t="n">
-        <v>1923711189.747152</v>
+        <v>1956550929.482309</v>
       </c>
     </row>
     <row r="348">
@@ -4261,10 +4261,10 @@
         <v>0.98</v>
       </c>
       <c r="B348" t="n">
-        <v>1924.22156999057</v>
+        <v>1958.495341686861</v>
       </c>
       <c r="C348" t="n">
-        <v>1924221569.99057</v>
+        <v>1958495341.686861</v>
       </c>
     </row>
     <row r="349">
@@ -4272,10 +4272,10 @@
         <v>0.985</v>
       </c>
       <c r="B349" t="n">
-        <v>1924.729489214293</v>
+        <v>1960.43178389221</v>
       </c>
       <c r="C349" t="n">
-        <v>1924729489.214293</v>
+        <v>1960431783.89221</v>
       </c>
     </row>
     <row r="350">
@@ -4283,10 +4283,10 @@
         <v>0.99</v>
       </c>
       <c r="B350" t="n">
-        <v>1925.234971678353</v>
+        <v>1962.360328945051</v>
       </c>
       <c r="C350" t="n">
-        <v>1925234971.678353</v>
+        <v>1962360328.945051</v>
       </c>
     </row>
     <row r="351">
@@ -4294,10 +4294,10 @@
         <v>0.995</v>
       </c>
       <c r="B351" t="n">
-        <v>1925.738041282696</v>
+        <v>1964.281048662715</v>
       </c>
       <c r="C351" t="n">
-        <v>1925738041.282696</v>
+        <v>1964281048.662715</v>
       </c>
     </row>
     <row r="352">
@@ -4305,10 +4305,10 @@
         <v>1</v>
       </c>
       <c r="B352" t="n">
-        <v>1926.238721574303</v>
+        <v>1966.194013852802</v>
       </c>
       <c r="C352" t="n">
-        <v>1926238721.574303</v>
+        <v>1966194013.852802</v>
       </c>
     </row>
     <row r="353">
@@ -4316,10 +4316,10 @@
         <v>1.005</v>
       </c>
       <c r="B353" t="n">
-        <v>1926.737035754133</v>
+        <v>1968.099294332339</v>
       </c>
       <c r="C353" t="n">
-        <v>1926737035.754133</v>
+        <v>1968099294.332339</v>
       </c>
     </row>
     <row r="354">
@@ -4327,10 +4327,10 @@
         <v>1.01</v>
       </c>
       <c r="B354" t="n">
-        <v>1927.233006683906</v>
+        <v>1969.996958946485</v>
       </c>
       <c r="C354" t="n">
-        <v>1927233006.683906</v>
+        <v>1969996958.946485</v>
       </c>
     </row>
     <row r="355">
@@ -4338,10 +4338,10 @@
         <v>1.015</v>
       </c>
       <c r="B355" t="n">
-        <v>1927.726656892705</v>
+        <v>1971.887075586788</v>
       </c>
       <c r="C355" t="n">
-        <v>1927726656.892705</v>
+        <v>1971887075.586788</v>
       </c>
     </row>
     <row r="356">
@@ -4349,10 +4349,10 @@
         <v>1.02</v>
       </c>
       <c r="B356" t="n">
-        <v>1928.218008583431</v>
+        <v>1973.769711209021</v>
       </c>
       <c r="C356" t="n">
-        <v>1928218008.583431</v>
+        <v>1973769711.209021</v>
       </c>
     </row>
     <row r="357">
@@ -4360,10 +4360,10 @@
         <v>1.025</v>
       </c>
       <c r="B357" t="n">
-        <v>1928.707083639094</v>
+        <v>1975.644931850584</v>
       </c>
       <c r="C357" t="n">
-        <v>1928707083.639094</v>
+        <v>1975644931.850584</v>
       </c>
     </row>
     <row r="358">
@@ -4371,10 +4371,10 @@
         <v>1.03</v>
       </c>
       <c r="B358" t="n">
-        <v>1929.193903628957</v>
+        <v>1977.512802647511</v>
       </c>
       <c r="C358" t="n">
-        <v>1929193903.628957</v>
+        <v>1977512802.647511</v>
       </c>
     </row>
     <row r="359">
@@ -4382,10 +4382,10 @@
         <v>1.035</v>
       </c>
       <c r="B359" t="n">
-        <v>1929.67848981453</v>
+        <v>1979.373387851077</v>
       </c>
       <c r="C359" t="n">
-        <v>1929678489.81453</v>
+        <v>1979373387.851077</v>
       </c>
     </row>
     <row r="360">
@@ -4393,10 +4393,10 @@
         <v>1.04</v>
       </c>
       <c r="B360" t="n">
-        <v>1930.160863155422</v>
+        <v>1981.226750844022</v>
       </c>
       <c r="C360" t="n">
-        <v>1930160863.155421</v>
+        <v>1981226750.844022</v>
       </c>
     </row>
     <row r="361">
@@ -4404,10 +4404,10 @@
         <v>1.045</v>
       </c>
       <c r="B361" t="n">
-        <v>1930.641044315054</v>
+        <v>1983.072954156397</v>
       </c>
       <c r="C361" t="n">
-        <v>1930641044.315054</v>
+        <v>1983072954.156397</v>
       </c>
     </row>
     <row r="362">
@@ -4415,10 +4415,10 @@
         <v>1.05</v>
       </c>
       <c r="B362" t="n">
-        <v>1931.11905366624</v>
+        <v>1984.912059481052</v>
       </c>
       <c r="C362" t="n">
-        <v>1931119053.66624</v>
+        <v>1984912059.481052</v>
       </c>
     </row>
     <row r="363">
@@ -4426,10 +4426,10 @@
         <v>1.055</v>
       </c>
       <c r="B363" t="n">
-        <v>1931.594911296631</v>
+        <v>1986.744127688766</v>
       </c>
       <c r="C363" t="n">
-        <v>1931594911.296631</v>
+        <v>1986744127.688766</v>
       </c>
     </row>
     <row r="364">
@@ -4437,10 +4437,10 @@
         <v>1.06</v>
       </c>
       <c r="B364" t="n">
-        <v>1932.068637014038</v>
+        <v>1988.56921884304</v>
       </c>
       <c r="C364" t="n">
-        <v>1932068637.014038</v>
+        <v>1988569218.84304</v>
       </c>
     </row>
     <row r="365">
@@ -4448,10 +4448,10 @@
         <v>1.065</v>
       </c>
       <c r="B365" t="n">
-        <v>1932.540250351627</v>
+        <v>1990.387392214544</v>
       </c>
       <c r="C365" t="n">
-        <v>1932540250.351627</v>
+        <v>1990387392.214544</v>
       </c>
     </row>
     <row r="366">
@@ -4459,10 +4459,10 @@
         <v>1.07</v>
       </c>
       <c r="B366" t="n">
-        <v>1933.009770572994</v>
+        <v>1992.198706295253</v>
       </c>
       <c r="C366" t="n">
-        <v>1933009770.572994</v>
+        <v>1992198706.295253</v>
       </c>
     </row>
     <row r="367">
@@ -4470,10 +4470,10 @@
         <v>1.075</v>
       </c>
       <c r="B367" t="n">
-        <v>1933.477216677126</v>
+        <v>1994.003218812252</v>
       </c>
       <c r="C367" t="n">
-        <v>1933477216.677126</v>
+        <v>1994003218.812252</v>
       </c>
     </row>
     <row r="368">
@@ -4481,10 +4481,10 @@
         <v>1.08</v>
       </c>
       <c r="B368" t="n">
-        <v>1933.942607403245</v>
+        <v>1995.800986741248</v>
       </c>
       <c r="C368" t="n">
-        <v>1933942607.403245</v>
+        <v>1995800986.741248</v>
       </c>
     </row>
     <row r="369">
@@ -4492,10 +4492,10 @@
         <v>1.085</v>
       </c>
       <c r="B369" t="n">
-        <v>1934.405961235543</v>
+        <v>1997.592066319769</v>
       </c>
       <c r="C369" t="n">
-        <v>1934405961.235543</v>
+        <v>1997592066.319769</v>
       </c>
     </row>
     <row r="370">
@@ -4503,10 +4503,10 @@
         <v>1.09</v>
       </c>
       <c r="B370" t="n">
-        <v>1934.867296407806</v>
+        <v>1999.376513060079</v>
       </c>
       <c r="C370" t="n">
-        <v>1934867296.407806</v>
+        <v>1999376513.060079</v>
       </c>
     </row>
     <row r="371">
@@ -4514,10 +4514,10 @@
         <v>1.095</v>
       </c>
       <c r="B371" t="n">
-        <v>1935.326630907941</v>
+        <v>2001.154381761807</v>
       </c>
       <c r="C371" t="n">
-        <v>1935326630.907941</v>
+        <v>2001154381.761807</v>
       </c>
     </row>
     <row r="372">
@@ -4525,10 +4525,10 @@
         <v>1.1</v>
       </c>
       <c r="B372" t="n">
-        <v>1935.783982482392</v>
+        <v>2002.925726524299</v>
       </c>
       <c r="C372" t="n">
-        <v>1935783982.482392</v>
+        <v>2002925726.524299</v>
       </c>
     </row>
     <row r="373">
@@ -4536,10 +4536,10 @@
         <v>1.105</v>
       </c>
       <c r="B373" t="n">
-        <v>1936.239368640462</v>
+        <v>2004.690600758702</v>
       </c>
       <c r="C373" t="n">
-        <v>1936239368.640462</v>
+        <v>2004690600.758702</v>
       </c>
     </row>
     <row r="374">
@@ -4547,10 +4547,10 @@
         <v>1.11</v>
       </c>
       <c r="B374" t="n">
-        <v>1936.692806658541</v>
+        <v>2006.449057199787</v>
       </c>
       <c r="C374" t="n">
-        <v>1936692806.658541</v>
+        <v>2006449057.199787</v>
       </c>
     </row>
     <row r="375">
@@ -4558,10 +4558,10 @@
         <v>1.115</v>
       </c>
       <c r="B375" t="n">
-        <v>1937.144313584231</v>
+        <v>2008.201147917511</v>
       </c>
       <c r="C375" t="n">
-        <v>1937144313.584231</v>
+        <v>2008201147.917511</v>
       </c>
     </row>
     <row r="376">
@@ -4569,10 +4569,10 @@
         <v>1.12</v>
       </c>
       <c r="B376" t="n">
-        <v>1937.59390624039</v>
+        <v>2009.946924328338</v>
       </c>
       <c r="C376" t="n">
-        <v>1937593906.24039</v>
+        <v>2009946924.328338</v>
       </c>
     </row>
     <row r="377">
@@ -4580,10 +4580,10 @@
         <v>1.125</v>
       </c>
       <c r="B377" t="n">
-        <v>1938.041601229077</v>
+        <v>2011.686437206314</v>
       </c>
       <c r="C377" t="n">
-        <v>1938041601.229077</v>
+        <v>2011686437.206314</v>
       </c>
     </row>
     <row r="378">
@@ -4591,10 +4591,10 @@
         <v>1.13</v>
       </c>
       <c r="B378" t="n">
-        <v>1938.487414935423</v>
+        <v>2013.419736693904</v>
       </c>
       <c r="C378" t="n">
-        <v>1938487414.935423</v>
+        <v>2013419736.693904</v>
       </c>
     </row>
     <row r="379">
@@ -4602,10 +4602,10 @@
         <v>1.135</v>
       </c>
       <c r="B379" t="n">
-        <v>1938.931363531405</v>
+        <v>2015.146872312602</v>
       </c>
       <c r="C379" t="n">
-        <v>1938931363.531405</v>
+        <v>2015146872.312603</v>
       </c>
     </row>
     <row r="380">
@@ -4613,10 +4613,10 @@
         <v>1.14</v>
       </c>
       <c r="B380" t="n">
-        <v>1939.373462979544</v>
+        <v>2016.86789297332</v>
       </c>
       <c r="C380" t="n">
-        <v>1939373462.979544</v>
+        <v>2016867892.97332</v>
       </c>
     </row>
     <row r="381">
@@ -4624,10 +4624,10 @@
         <v>1.145</v>
       </c>
       <c r="B381" t="n">
-        <v>1939.813729036522</v>
+        <v>2018.58284698655</v>
       </c>
       <c r="C381" t="n">
-        <v>1939813729.036522</v>
+        <v>2018582846.98655</v>
       </c>
     </row>
     <row r="382">
@@ -4635,10 +4635,10 @@
         <v>1.15</v>
       </c>
       <c r="B382" t="n">
-        <v>1940.252177256724</v>
+        <v>2020.291782072319</v>
       </c>
       <c r="C382" t="n">
-        <v>1940252177.256724</v>
+        <v>2020291782.072319</v>
       </c>
     </row>
     <row r="383">
@@ -4646,10 +4646,10 @@
         <v>1.155</v>
       </c>
       <c r="B383" t="n">
-        <v>1940.688822995697</v>
+        <v>2021.994745369939</v>
       </c>
       <c r="C383" t="n">
-        <v>1940688822.995697</v>
+        <v>2021994745.369939</v>
       </c>
     </row>
     <row r="384">
@@ -4657,10 +4657,10 @@
         <v>1.16</v>
       </c>
       <c r="B384" t="n">
-        <v>1941.123681413541</v>
+        <v>2023.691783447548</v>
       </c>
       <c r="C384" t="n">
-        <v>1941123681.413541</v>
+        <v>2023691783.447548</v>
       </c>
     </row>
     <row r="385">
@@ -4668,10 +4668,10 @@
         <v>1.165</v>
       </c>
       <c r="B385" t="n">
-        <v>1941.556767478229</v>
+        <v>2025.382942311458</v>
       </c>
       <c r="C385" t="n">
-        <v>1941556767.478229</v>
+        <v>2025382942.311458</v>
       </c>
     </row>
     <row r="386">
@@ -4679,10 +4679,10 @@
         <v>1.17</v>
       </c>
       <c r="B386" t="n">
-        <v>1941.988095968848</v>
+        <v>2027.06826741531</v>
       </c>
       <c r="C386" t="n">
-        <v>1941988095.968848</v>
+        <v>2027068267.41531</v>
       </c>
     </row>
     <row r="387">
@@ -4690,10 +4690,10 @@
         <v>1.175</v>
       </c>
       <c r="B387" t="n">
-        <v>1942.417681478783</v>
+        <v>2028.74780366904</v>
       </c>
       <c r="C387" t="n">
-        <v>1942417681.478783</v>
+        <v>2028747803.66904</v>
       </c>
     </row>
     <row r="388">
@@ -4701,10 +4701,10 @@
         <v>1.18</v>
       </c>
       <c r="B388" t="n">
-        <v>1942.845538418827</v>
+        <v>2030.421595447666</v>
       </c>
       <c r="C388" t="n">
-        <v>1942845538.418827</v>
+        <v>2030421595.447666</v>
       </c>
     </row>
     <row r="389">
@@ -4712,10 +4712,10 @@
         <v>1.185</v>
       </c>
       <c r="B389" t="n">
-        <v>1943.271681020225</v>
+        <v>2032.089686599891</v>
       </c>
       <c r="C389" t="n">
-        <v>1943271681.020225</v>
+        <v>2032089686.599891</v>
       </c>
     </row>
     <row r="390">
@@ -4723,10 +4723,10 @@
         <v>1.19</v>
       </c>
       <c r="B390" t="n">
-        <v>1943.696123337661</v>
+        <v>2033.752120456536</v>
       </c>
       <c r="C390" t="n">
-        <v>1943696123.337661</v>
+        <v>2033752120.456537</v>
       </c>
     </row>
     <row r="391">
@@ -4734,10 +4734,10 @@
         <v>1.195</v>
       </c>
       <c r="B391" t="n">
-        <v>1944.118879252176</v>
+        <v>2035.408939838802</v>
       </c>
       <c r="C391" t="n">
-        <v>1944118879.252176</v>
+        <v>2035408939.838802</v>
       </c>
     </row>
     <row r="392">
@@ -4745,10 +4745,10 @@
         <v>1.2</v>
       </c>
       <c r="B392" t="n">
-        <v>1944.539962474032</v>
+        <v>2037.060187066365</v>
       </c>
       <c r="C392" t="n">
-        <v>1944539962.474032</v>
+        <v>2037060187.066365</v>
       </c>
     </row>
     <row r="393">
@@ -4756,10 +4756,10 @@
         <v>1.205</v>
       </c>
       <c r="B393" t="n">
-        <v>1944.959386545512</v>
+        <v>2038.705903965312</v>
       </c>
       <c r="C393" t="n">
-        <v>1944959386.545512</v>
+        <v>2038705903.965312</v>
       </c>
     </row>
     <row r="394">
@@ -4767,10 +4767,10 @@
         <v>1.21</v>
       </c>
       <c r="B394" t="n">
-        <v>1945.377164843666</v>
+        <v>2040.346131875915</v>
       </c>
       <c r="C394" t="n">
-        <v>1945377164.843666</v>
+        <v>2040346131.875915</v>
       </c>
     </row>
     <row r="395">
@@ -4778,10 +4778,10 @@
         <v>1.215</v>
       </c>
       <c r="B395" t="n">
-        <v>1945.793310582998</v>
+        <v>2041.980911660256</v>
       </c>
       <c r="C395" t="n">
-        <v>1945793310.582998</v>
+        <v>2041980911.660256</v>
       </c>
     </row>
     <row r="396">
@@ -4789,10 +4789,10 @@
         <v>1.22</v>
       </c>
       <c r="B396" t="n">
-        <v>1946.207836818103</v>
+        <v>2043.610283709698</v>
       </c>
       <c r="C396" t="n">
-        <v>1946207836.818103</v>
+        <v>2043610283.709698</v>
       </c>
     </row>
     <row r="397">
@@ -4800,10 +4800,10 @@
         <v>1.225</v>
       </c>
       <c r="B397" t="n">
-        <v>1946.620756446245</v>
+        <v>2045.234287952211</v>
       </c>
       <c r="C397" t="n">
-        <v>1946620756.446245</v>
+        <v>2045234287.952211</v>
       </c>
     </row>
     <row r="398">
@@ -4811,10 +4811,10 @@
         <v>1.23</v>
       </c>
       <c r="B398" t="n">
-        <v>1947.032082209889</v>
+        <v>2046.852963859551</v>
       </c>
       <c r="C398" t="n">
-        <v>1947032082.209889</v>
+        <v>2046852963.859551</v>
       </c>
     </row>
     <row r="399">
@@ -4822,10 +4822,10 @@
         <v>1.235</v>
       </c>
       <c r="B399" t="n">
-        <v>1947.441826699175</v>
+        <v>2048.466350454306</v>
       </c>
       <c r="C399" t="n">
-        <v>1947441826.699175</v>
+        <v>2048466350.454306</v>
       </c>
     </row>
     <row r="400">
@@ -4833,10 +4833,10 @@
         <v>1.24</v>
       </c>
       <c r="B400" t="n">
-        <v>1947.850002354352</v>
+        <v>2050.074486316797</v>
       </c>
       <c r="C400" t="n">
-        <v>1947850002.354352</v>
+        <v>2050074486.316797</v>
       </c>
     </row>
     <row r="401">
@@ -4844,10 +4844,10 @@
         <v>1.245</v>
       </c>
       <c r="B401" t="n">
-        <v>1948.256621468153</v>
+        <v>2051.677409591854</v>
       </c>
       <c r="C401" t="n">
-        <v>1948256621.468153</v>
+        <v>2051677409.591854</v>
       </c>
     </row>
     <row r="402">
@@ -4855,10 +4855,10 @@
         <v>1.25</v>
       </c>
       <c r="B402" t="n">
-        <v>1948.661696188131</v>
+        <v>2053.275157995452</v>
       </c>
       <c r="C402" t="n">
-        <v>1948661696.188131</v>
+        <v>2053275157.995452</v>
       </c>
     </row>
     <row r="403">
@@ -4866,10 +4866,10 @@
         <v>1.255</v>
       </c>
       <c r="B403" t="n">
-        <v>1949.065238518946</v>
+        <v>2054.867768821231</v>
       </c>
       <c r="C403" t="n">
-        <v>1949065238.518946</v>
+        <v>2054867768.821232</v>
       </c>
     </row>
     <row r="404">
@@ -4877,10 +4877,10 @@
         <v>1.26</v>
       </c>
       <c r="B404" t="n">
-        <v>1949.467260324608</v>
+        <v>2056.45527894688</v>
       </c>
       <c r="C404" t="n">
-        <v>1949467260.324608</v>
+        <v>2056455278.94688</v>
       </c>
     </row>
     <row r="405">
@@ -4888,10 +4888,10 @@
         <v>1.265</v>
       </c>
       <c r="B405" t="n">
-        <v>1949.86777333067</v>
+        <v>2058.037724840408</v>
       </c>
       <c r="C405" t="n">
-        <v>1949867773.33067</v>
+        <v>2058037724.840408</v>
       </c>
     </row>
     <row r="406">
@@ -4899,10 +4899,10 @@
         <v>1.27</v>
       </c>
       <c r="B406" t="n">
-        <v>1950.266789126391</v>
+        <v>2059.615142566292</v>
       </c>
       <c r="C406" t="n">
-        <v>1950266789.126391</v>
+        <v>2059615142.566292</v>
       </c>
     </row>
     <row r="407">
@@ -4910,10 +4910,10 @@
         <v>1.275</v>
       </c>
       <c r="B407" t="n">
-        <v>1950.664319166844</v>
+        <v>2061.187567791509</v>
       </c>
       <c r="C407" t="n">
-        <v>1950664319.166844</v>
+        <v>2061187567.791509</v>
       </c>
     </row>
     <row r="408">
@@ -4921,10 +4921,10 @@
         <v>1.28</v>
       </c>
       <c r="B408" t="n">
-        <v>1951.06037477499</v>
+        <v>2062.755035791457</v>
       </c>
       <c r="C408" t="n">
-        <v>1951060374.77499</v>
+        <v>2062755035.791456</v>
       </c>
     </row>
     <row r="409">
@@ -4932,10 +4932,10 @@
         <v>1.285</v>
       </c>
       <c r="B409" t="n">
-        <v>1951.454967143711</v>
+        <v>2064.317581455764</v>
       </c>
       <c r="C409" t="n">
-        <v>1951454967.143711</v>
+        <v>2064317581.455764</v>
       </c>
     </row>
     <row r="410">
@@ -4943,10 +4943,10 @@
         <v>1.29</v>
       </c>
       <c r="B410" t="n">
-        <v>1951.848107337801</v>
+        <v>2065.875239293986</v>
       </c>
       <c r="C410" t="n">
-        <v>1951848107.337801</v>
+        <v>2065875239.293986</v>
       </c>
     </row>
     <row r="411">
@@ -4954,10 +4954,10 @@
         <v>1.295</v>
       </c>
       <c r="B411" t="n">
-        <v>1952.239806295926</v>
+        <v>2067.428043441205</v>
       </c>
       <c r="C411" t="n">
-        <v>1952239806.295926</v>
+        <v>2067428043.441205</v>
       </c>
     </row>
     <row r="412">
@@ -4965,10 +4965,10 @@
         <v>1.3</v>
       </c>
       <c r="B412" t="n">
-        <v>1952.63007483254</v>
+        <v>2068.976027663515</v>
       </c>
       <c r="C412" t="n">
-        <v>1952630074.83254</v>
+        <v>2068976027.663515</v>
       </c>
     </row>
     <row r="413">
@@ -4976,10 +4976,10 @@
         <v>1.305</v>
       </c>
       <c r="B413" t="n">
-        <v>1953.018923639763</v>
+        <v>2070.519225363414</v>
       </c>
       <c r="C413" t="n">
-        <v>1953018923.639763</v>
+        <v>2070519225.363414</v>
       </c>
     </row>
     <row r="414">
@@ -4987,10 +4987,10 @@
         <v>1.31</v>
       </c>
       <c r="B414" t="n">
-        <v>1953.406363289233</v>
+        <v>2072.057669585096</v>
       </c>
       <c r="C414" t="n">
-        <v>1953406363.289233</v>
+        <v>2072057669.585096</v>
       </c>
     </row>
     <row r="415">
@@ -4998,10 +4998,10 @@
         <v>1.315</v>
       </c>
       <c r="B415" t="n">
-        <v>1953.792404233912</v>
+        <v>2073.591393019642</v>
       </c>
       <c r="C415" t="n">
-        <v>1953792404.233912</v>
+        <v>2073591393.019642</v>
       </c>
     </row>
     <row r="416">
@@ -5009,10 +5009,10 @@
         <v>1.32</v>
       </c>
       <c r="B416" t="n">
-        <v>1954.177056809868</v>
+        <v>2075.120428010117</v>
       </c>
       <c r="C416" t="n">
-        <v>1954177056.809868</v>
+        <v>2075120428.010117</v>
       </c>
     </row>
     <row r="417">
@@ -5020,10 +5020,10 @@
         <v>1.325</v>
       </c>
       <c r="B417" t="n">
-        <v>1954.560331238017</v>
+        <v>2076.644806556584</v>
       </c>
       <c r="C417" t="n">
-        <v>1954560331.238017</v>
+        <v>2076644806.556584</v>
       </c>
     </row>
     <row r="418">
@@ -5031,10 +5031,10 @@
         <v>1.33</v>
       </c>
       <c r="B418" t="n">
-        <v>1954.942237625833</v>
+        <v>2078.164560321011</v>
       </c>
       <c r="C418" t="n">
-        <v>1954942237.625833</v>
+        <v>2078164560.321011</v>
       </c>
     </row>
     <row r="419">
@@ -5042,10 +5042,10 @@
         <v>1.335</v>
       </c>
       <c r="B419" t="n">
-        <v>1955.32278596903</v>
+        <v>2079.679720632103</v>
       </c>
       <c r="C419" t="n">
-        <v>1955322785.96903</v>
+        <v>2079679720.632102</v>
       </c>
     </row>
     <row r="420">
@@ -5053,10 +5053,10 @@
         <v>1.34</v>
       </c>
       <c r="B420" t="n">
-        <v>1955.701986153209</v>
+        <v>2081.190318490039</v>
       </c>
       <c r="C420" t="n">
-        <v>1955701986.153209</v>
+        <v>2081190318.490039</v>
       </c>
     </row>
     <row r="421">
@@ -5064,10 +5064,10 @@
         <v>1.345</v>
       </c>
       <c r="B421" t="n">
-        <v>1956.079847955481</v>
+        <v>2082.696384571134</v>
       </c>
       <c r="C421" t="n">
-        <v>1956079847.955481</v>
+        <v>2082696384.571134</v>
       </c>
     </row>
     <row r="422">
@@ -5075,10 +5075,10 @@
         <v>1.35</v>
       </c>
       <c r="B422" t="n">
-        <v>1956.456381046047</v>
+        <v>2084.197949232401</v>
       </c>
       <c r="C422" t="n">
-        <v>1956456381.046047</v>
+        <v>2084197949.232401</v>
       </c>
     </row>
     <row r="423">
@@ -5086,10 +5086,10 @@
         <v>1.355</v>
       </c>
       <c r="B423" t="n">
-        <v>1956.831594989767</v>
+        <v>2085.695042516054</v>
       </c>
       <c r="C423" t="n">
-        <v>1956831594.989767</v>
+        <v>2085695042.516054</v>
       </c>
     </row>
     <row r="424">
@@ -5097,10 +5097,10 @@
         <v>1.36</v>
       </c>
       <c r="B424" t="n">
-        <v>1957.205499247685</v>
+        <v>2087.18769415391</v>
       </c>
       <c r="C424" t="n">
-        <v>1957205499.247685</v>
+        <v>2087187694.15391</v>
       </c>
     </row>
     <row r="425">
@@ -5108,10 +5108,10 @@
         <v>1.365</v>
       </c>
       <c r="B425" t="n">
-        <v>1957.578103178534</v>
+        <v>2088.67593357173</v>
       </c>
       <c r="C425" t="n">
-        <v>1957578103.178534</v>
+        <v>2088675933.57173</v>
       </c>
     </row>
     <row r="426">
@@ -5119,10 +5119,10 @@
         <v>1.37</v>
       </c>
       <c r="B426" t="n">
-        <v>1957.949416040214</v>
+        <v>2090.159789893471</v>
       </c>
       <c r="C426" t="n">
-        <v>1957949416.040214</v>
+        <v>2090159789.893471</v>
       </c>
     </row>
     <row r="427">
@@ -5130,10 +5130,10 @@
         <v>1.375</v>
       </c>
       <c r="B427" t="n">
-        <v>1958.319446991239</v>
+        <v>2091.639291945477</v>
       </c>
       <c r="C427" t="n">
-        <v>1958319446.991239</v>
+        <v>2091639291.945477</v>
       </c>
     </row>
     <row r="428">
@@ -5141,10 +5141,10 @@
         <v>1.38</v>
       </c>
       <c r="B428" t="n">
-        <v>1958.688205092163</v>
+        <v>2093.114468260578</v>
       </c>
       <c r="C428" t="n">
-        <v>1958688205.092163</v>
+        <v>2093114468.260578</v>
       </c>
     </row>
     <row r="429">
@@ -5152,10 +5152,10 @@
         <v>1.385</v>
       </c>
       <c r="B429" t="n">
-        <v>1959.055699306977</v>
+        <v>2094.585347082141</v>
       </c>
       <c r="C429" t="n">
-        <v>1959055699.306977</v>
+        <v>2094585347.082141</v>
       </c>
     </row>
     <row r="430">
@@ -5163,10 +5163,10 @@
         <v>1.39</v>
       </c>
       <c r="B430" t="n">
-        <v>1959.421938504482</v>
+        <v>2096.051956368034</v>
       </c>
       <c r="C430" t="n">
-        <v>1959421938.504482</v>
+        <v>2096051956.368034</v>
       </c>
     </row>
     <row r="431">
@@ -5174,10 +5174,10 @@
         <v>1.395</v>
       </c>
       <c r="B431" t="n">
-        <v>1959.786931459638</v>
+        <v>2097.514323794522</v>
       </c>
       <c r="C431" t="n">
-        <v>1959786931.459638</v>
+        <v>2097514323.794522</v>
       </c>
     </row>
     <row r="432">
@@ -5185,10 +5185,10 @@
         <v>1.4</v>
       </c>
       <c r="B432" t="n">
-        <v>1960.150686854889</v>
+        <v>2098.97247676011</v>
       </c>
       <c r="C432" t="n">
-        <v>1960150686.854889</v>
+        <v>2098972476.76011</v>
       </c>
     </row>
     <row r="433">
@@ -5196,10 +5196,10 @@
         <v>1.405</v>
       </c>
       <c r="B433" t="n">
-        <v>1960.513213281465</v>
+        <v>2100.426442389301</v>
       </c>
       <c r="C433" t="n">
-        <v>1960513213.281465</v>
+        <v>2100426442.389301</v>
       </c>
     </row>
     <row r="434">
@@ -5207,10 +5207,10 @@
         <v>1.41</v>
       </c>
       <c r="B434" t="n">
-        <v>1960.874519240661</v>
+        <v>2101.876247536307</v>
       </c>
       <c r="C434" t="n">
-        <v>1960874519.240661</v>
+        <v>2101876247.536307</v>
       </c>
     </row>
     <row r="435">
@@ -5218,10 +5218,10 @@
         <v>1.415</v>
       </c>
       <c r="B435" t="n">
-        <v>1961.234613145092</v>
+        <v>2103.321918788687</v>
       </c>
       <c r="C435" t="n">
-        <v>1961234613.145092</v>
+        <v>2103321918.788687</v>
       </c>
     </row>
     <row r="436">
@@ -5229,10 +5229,10 @@
         <v>1.42</v>
       </c>
       <c r="B436" t="n">
-        <v>1961.59350331993</v>
+        <v>2104.763482470923</v>
       </c>
       <c r="C436" t="n">
-        <v>1961593503.31993</v>
+        <v>2104763482.470923</v>
       </c>
     </row>
     <row r="437">
@@ -5240,10 +5240,10 @@
         <v>1.425</v>
       </c>
       <c r="B437" t="n">
-        <v>1961.951198004113</v>
+        <v>2106.200964647945</v>
       </c>
       <c r="C437" t="n">
-        <v>1961951198.004113</v>
+        <v>2106200964.647945</v>
       </c>
     </row>
     <row r="438">
@@ -5251,10 +5251,10 @@
         <v>1.43</v>
       </c>
       <c r="B438" t="n">
-        <v>1962.30770535154</v>
+        <v>2107.634391128582</v>
       </c>
       <c r="C438" t="n">
-        <v>1962307705.35154</v>
+        <v>2107634391.128582</v>
       </c>
     </row>
     <row r="439">
@@ -5262,10 +5262,10 @@
         <v>1.435</v>
       </c>
       <c r="B439" t="n">
-        <v>1962.663033432243</v>
+        <v>2109.063787468969</v>
       </c>
       <c r="C439" t="n">
-        <v>1962663033.432243</v>
+        <v>2109063787.468969</v>
       </c>
     </row>
     <row r="440">
@@ -5273,10 +5273,10 @@
         <v>1.44</v>
       </c>
       <c r="B440" t="n">
-        <v>1963.017190233535</v>
+        <v>2110.489178975891</v>
       </c>
       <c r="C440" t="n">
-        <v>1963017190.233535</v>
+        <v>2110489178.975891</v>
       </c>
     </row>
     <row r="441">
@@ -5284,10 +5284,10 @@
         <v>1.445</v>
       </c>
       <c r="B441" t="n">
-        <v>1963.370183661144</v>
+        <v>2111.910590710068</v>
       </c>
       <c r="C441" t="n">
-        <v>1963370183.661144</v>
+        <v>2111910590.710068</v>
       </c>
     </row>
     <row r="442">
@@ -5295,10 +5295,10 @@
         <v>1.45</v>
       </c>
       <c r="B442" t="n">
-        <v>1963.722021540326</v>
+        <v>2113.328047489395</v>
       </c>
       <c r="C442" t="n">
-        <v>1963722021.540326</v>
+        <v>2113328047.489395</v>
       </c>
     </row>
     <row r="443">
@@ -5306,10 +5306,10 @@
         <v>1.455</v>
       </c>
       <c r="B443" t="n">
-        <v>1964.072711616955</v>
+        <v>2114.741573892114</v>
       </c>
       <c r="C443" t="n">
-        <v>1964072711.616955</v>
+        <v>2114741573.892114</v>
       </c>
     </row>
     <row r="444">
@@ -5317,10 +5317,10 @@
         <v>1.46</v>
       </c>
       <c r="B444" t="n">
-        <v>1964.422261558599</v>
+        <v>2116.15119425995</v>
       </c>
       <c r="C444" t="n">
-        <v>1964422261.558599</v>
+        <v>2116151194.25995</v>
       </c>
     </row>
     <row r="445">
@@ -5328,10 +5328,10 @@
         <v>1.465</v>
       </c>
       <c r="B445" t="n">
-        <v>1964.77067895558</v>
+        <v>2117.556932701186</v>
       </c>
       <c r="C445" t="n">
-        <v>1964770678.95558</v>
+        <v>2117556932.701186</v>
       </c>
     </row>
     <row r="446">
@@ -5339,10 +5339,10 @@
         <v>1.47</v>
       </c>
       <c r="B446" t="n">
-        <v>1965.117971322005</v>
+        <v>2118.958813093685</v>
       </c>
       <c r="C446" t="n">
-        <v>1965117971.322005</v>
+        <v>2118958813.093685</v>
       </c>
     </row>
     <row r="447">
@@ -5350,10 +5350,10 @@
         <v>1.475</v>
       </c>
       <c r="B447" t="n">
-        <v>1965.464146096797</v>
+        <v>2120.356859087874</v>
       </c>
       <c r="C447" t="n">
-        <v>1965464146.096797</v>
+        <v>2120356859.087874</v>
       </c>
     </row>
     <row r="448">
@@ -5361,10 +5361,10 @@
         <v>1.48</v>
       </c>
       <c r="B448" t="n">
-        <v>1965.809210644691</v>
+        <v>2121.751094109665</v>
       </c>
       <c r="C448" t="n">
-        <v>1965809210.644691</v>
+        <v>2121751094.109665</v>
       </c>
     </row>
     <row r="449">
@@ -5372,10 +5372,10 @@
         <v>1.485</v>
       </c>
       <c r="B449" t="n">
-        <v>1966.153172257226</v>
+        <v>2123.141541363343</v>
       </c>
       <c r="C449" t="n">
-        <v>1966153172.257226</v>
+        <v>2123141541.363343</v>
       </c>
     </row>
     <row r="450">
@@ -5383,10 +5383,10 @@
         <v>1.49</v>
       </c>
       <c r="B450" t="n">
-        <v>1966.496038153712</v>
+        <v>2124.528223834395</v>
       </c>
       <c r="C450" t="n">
-        <v>1966496038.153712</v>
+        <v>2124528223.834395</v>
       </c>
     </row>
     <row r="451">
@@ -5394,10 +5394,10 @@
         <v>1.495</v>
       </c>
       <c r="B451" t="n">
-        <v>1966.837815482191</v>
+        <v>2125.911164292304</v>
       </c>
       <c r="C451" t="n">
-        <v>1966837815.482192</v>
+        <v>2125911164.292305</v>
       </c>
     </row>
     <row r="452">
@@ -5405,10 +5405,10 @@
         <v>1.5</v>
       </c>
       <c r="B452" t="n">
-        <v>1967.178511320371</v>
+        <v>2127.29038529329</v>
       </c>
       <c r="C452" t="n">
-        <v>1967178511.320371</v>
+        <v>2127290385.29329</v>
       </c>
     </row>
     <row r="453">
@@ -5416,10 +5416,10 @@
         <v>1.505</v>
       </c>
       <c r="B453" t="n">
-        <v>1967.518132676549</v>
+        <v>2128.665909183012</v>
       </c>
       <c r="C453" t="n">
-        <v>1967518132.676549</v>
+        <v>2128665909.183012</v>
       </c>
     </row>
     <row r="454">
@@ -5427,10 +5427,10 @@
         <v>1.51</v>
       </c>
       <c r="B454" t="n">
-        <v>1967.856686490527</v>
+        <v>2130.037758099221</v>
       </c>
       <c r="C454" t="n">
-        <v>1967856686.490527</v>
+        <v>2130037758.099221</v>
       </c>
     </row>
     <row r="455">
@@ -5438,10 +5438,10 @@
         <v>1.515</v>
       </c>
       <c r="B455" t="n">
-        <v>1968.194179634495</v>
+        <v>2131.405953974384</v>
       </c>
       <c r="C455" t="n">
-        <v>1968194179.634495</v>
+        <v>2131405953.974384</v>
       </c>
     </row>
     <row r="456">
@@ -5449,10 +5449,10 @@
         <v>1.52</v>
       </c>
       <c r="B456" t="n">
-        <v>1968.530618913918</v>
+        <v>2132.770518538248</v>
       </c>
       <c r="C456" t="n">
-        <v>1968530618.913918</v>
+        <v>2132770518.538248</v>
       </c>
     </row>
     <row r="457">
@@ -5460,10 +5460,10 @@
         <v>1.525</v>
       </c>
       <c r="B457" t="n">
-        <v>1968.866011068401</v>
+        <v>2134.131473320379</v>
       </c>
       <c r="C457" t="n">
-        <v>1968866011.068401</v>
+        <v>2134131473.320379</v>
       </c>
     </row>
     <row r="458">
@@ -5471,10 +5471,10 @@
         <v>1.53</v>
       </c>
       <c r="B458" t="n">
-        <v>1969.200362772532</v>
+        <v>2135.488839652655</v>
       </c>
       <c r="C458" t="n">
-        <v>1969200362.772532</v>
+        <v>2135488839.652655</v>
       </c>
     </row>
     <row r="459">
@@ -5482,10 +5482,10 @@
         <v>1.535</v>
       </c>
       <c r="B459" t="n">
-        <v>1969.533680636728</v>
+        <v>2136.842638671718</v>
       </c>
       <c r="C459" t="n">
-        <v>1969533680.636728</v>
+        <v>2136842638.671718</v>
       </c>
     </row>
     <row r="460">
@@ -5493,10 +5493,10 @@
         <v>1.54</v>
       </c>
       <c r="B460" t="n">
-        <v>1969.865971208055</v>
+        <v>2138.19289132139</v>
       </c>
       <c r="C460" t="n">
-        <v>1969865971.208055</v>
+        <v>2138192891.32139</v>
       </c>
     </row>
     <row r="461">
@@ -5504,10 +5504,10 @@
         <v>1.545</v>
       </c>
       <c r="B461" t="n">
-        <v>1970.197240971035</v>
+        <v>2139.539618355052</v>
       </c>
       <c r="C461" t="n">
-        <v>1970197240.971035</v>
+        <v>2139539618.355052</v>
       </c>
     </row>
     <row r="462">
@@ -5515,10 +5515,10 @@
         <v>1.55</v>
       </c>
       <c r="B462" t="n">
-        <v>1970.527496348452</v>
+        <v>2140.882840337988</v>
       </c>
       <c r="C462" t="n">
-        <v>1970527496.348452</v>
+        <v>2140882840.337988</v>
       </c>
     </row>
     <row r="463">
@@ -5526,10 +5526,10 @@
         <v>1.555</v>
       </c>
       <c r="B463" t="n">
-        <v>1970.856743702128</v>
+        <v>2142.222577649683</v>
       </c>
       <c r="C463" t="n">
-        <v>1970856743.702128</v>
+        <v>2142222577.649683</v>
       </c>
     </row>
     <row r="464">
@@ -5537,10 +5537,10 @@
         <v>1.56</v>
       </c>
       <c r="B464" t="n">
-        <v>1971.184989333699</v>
+        <v>2143.558850486101</v>
       </c>
       <c r="C464" t="n">
-        <v>1971184989.333699</v>
+        <v>2143558850.486101</v>
       </c>
     </row>
     <row r="465">
@@ -5548,10 +5548,10 @@
         <v>1.565</v>
       </c>
       <c r="B465" t="n">
-        <v>1971.512239485378</v>
+        <v>2144.891678861912</v>
       </c>
       <c r="C465" t="n">
-        <v>1971512239.485378</v>
+        <v>2144891678.861912</v>
       </c>
     </row>
     <row r="466">
@@ -5559,10 +5559,10 @@
         <v>1.57</v>
       </c>
       <c r="B466" t="n">
-        <v>1971.838500340696</v>
+        <v>2146.221082612698</v>
       </c>
       <c r="C466" t="n">
-        <v>1971838500.340696</v>
+        <v>2146221082.612698</v>
       </c>
     </row>
     <row r="467">
@@ -5570,10 +5570,10 @@
         <v>1.575</v>
       </c>
       <c r="B467" t="n">
-        <v>1972.163778025247</v>
+        <v>2147.547081397118</v>
       </c>
       <c r="C467" t="n">
-        <v>1972163778.025247</v>
+        <v>2147547081.397118</v>
       </c>
     </row>
     <row r="468">
@@ -5581,10 +5581,10 @@
         <v>1.58</v>
       </c>
       <c r="B468" t="n">
-        <v>1972.488078607405</v>
+        <v>2148.869694699039</v>
       </c>
       <c r="C468" t="n">
-        <v>1972488078.607405</v>
+        <v>2148869694.699039</v>
       </c>
     </row>
     <row r="469">
@@ -5592,10 +5592,10 @@
         <v>1.585</v>
       </c>
       <c r="B469" t="n">
-        <v>1972.811408099041</v>
+        <v>2150.188941829642</v>
       </c>
       <c r="C469" t="n">
-        <v>1972811408.099041</v>
+        <v>2150188941.829642</v>
       </c>
     </row>
     <row r="470">
@@ -5603,10 +5603,10 @@
         <v>1.59</v>
       </c>
       <c r="B470" t="n">
-        <v>1973.133772456227</v>
+        <v>2151.504841929487</v>
       </c>
       <c r="C470" t="n">
-        <v>1973133772.456227</v>
+        <v>2151504841.929487</v>
       </c>
     </row>
     <row r="471">
@@ -5614,10 +5614,10 @@
         <v>1.595</v>
       </c>
       <c r="B471" t="n">
-        <v>1973.455177579923</v>
+        <v>2152.817413970556</v>
       </c>
       <c r="C471" t="n">
-        <v>1973455177.579923</v>
+        <v>2152817413.970556</v>
       </c>
     </row>
     <row r="472">
@@ -5625,10 +5625,10 @@
         <v>1.6</v>
       </c>
       <c r="B472" t="n">
-        <v>1973.775629316664</v>
+        <v>2154.126676758256</v>
       </c>
       <c r="C472" t="n">
-        <v>1973775629.316664</v>
+        <v>2154126676.758255</v>
       </c>
     </row>
     <row r="473">
@@ -5636,10 +5636,10 @@
         <v>1.605</v>
       </c>
       <c r="B473" t="n">
-        <v>1974.095133459222</v>
+        <v>2155.432648933399</v>
       </c>
       <c r="C473" t="n">
-        <v>1974095133.459222</v>
+        <v>2155432648.933399</v>
       </c>
     </row>
     <row r="474">
@@ -5647,10 +5647,10 @@
         <v>1.61</v>
       </c>
       <c r="B474" t="n">
-        <v>1974.413695747274</v>
+        <v>2156.735348974153</v>
       </c>
       <c r="C474" t="n">
-        <v>1974413695.747274</v>
+        <v>2156735348.974153</v>
       </c>
     </row>
     <row r="475">
@@ -5658,10 +5658,10 @@
         <v>1.615</v>
       </c>
       <c r="B475" t="n">
-        <v>1974.731321868046</v>
+        <v>2158.034795197953</v>
       </c>
       <c r="C475" t="n">
-        <v>1974731321.868046</v>
+        <v>2158034795.197953</v>
       </c>
     </row>
     <row r="476">
@@ -5669,10 +5669,10 @@
         <v>1.62</v>
       </c>
       <c r="B476" t="n">
-        <v>1975.048017456955</v>
+        <v>2159.3310057634</v>
       </c>
       <c r="C476" t="n">
-        <v>1975048017.456955</v>
+        <v>2159331005.7634</v>
       </c>
     </row>
     <row r="477">
@@ -5680,10 +5680,10 @@
         <v>1.625</v>
       </c>
       <c r="B477" t="n">
-        <v>1975.363788098242</v>
+        <v>2160.623998672119</v>
       </c>
       <c r="C477" t="n">
-        <v>1975363788.098242</v>
+        <v>2160623998.672119</v>
       </c>
     </row>
     <row r="478">
@@ -5691,10 +5691,10 @@
         <v>1.63</v>
       </c>
       <c r="B478" t="n">
-        <v>1975.678639325587</v>
+        <v>2161.913791770593</v>
       </c>
       <c r="C478" t="n">
-        <v>1975678639.325587</v>
+        <v>2161913791.770593</v>
       </c>
     </row>
     <row r="479">
@@ -5702,10 +5702,10 @@
         <v>1.635</v>
       </c>
       <c r="B479" t="n">
-        <v>1975.992576622723</v>
+        <v>2163.200402751975</v>
       </c>
       <c r="C479" t="n">
-        <v>1975992576.622723</v>
+        <v>2163200402.751975</v>
       </c>
     </row>
     <row r="480">
@@ -5713,10 +5713,10 @@
         <v>1.64</v>
       </c>
       <c r="B480" t="n">
-        <v>1976.305605424039</v>
+        <v>2164.483849157866</v>
       </c>
       <c r="C480" t="n">
-        <v>1976305605.424039</v>
+        <v>2164483849.157866</v>
       </c>
     </row>
     <row r="481">
@@ -5724,10 +5724,10 @@
         <v>1.645</v>
       </c>
       <c r="B481" t="n">
-        <v>1976.61773111517</v>
+        <v>2165.764148380074</v>
       </c>
       <c r="C481" t="n">
-        <v>1976617731.11517</v>
+        <v>2165764148.380074</v>
       </c>
     </row>
     <row r="482">
@@ -5735,10 +5735,10 @@
         <v>1.65</v>
       </c>
       <c r="B482" t="n">
-        <v>1976.928959033585</v>
+        <v>2167.041317662338</v>
       </c>
       <c r="C482" t="n">
-        <v>1976928959.033585</v>
+        <v>2167041317.662338</v>
       </c>
     </row>
     <row r="483">
@@ -5746,10 +5746,10 @@
         <v>1.655</v>
       </c>
       <c r="B483" t="n">
-        <v>1977.239294469157</v>
+        <v>2168.315374102039</v>
       </c>
       <c r="C483" t="n">
-        <v>1977239294.469157</v>
+        <v>2168315374.102039</v>
       </c>
     </row>
     <row r="484">
@@ -5757,10 +5757,10 @@
         <v>1.66</v>
       </c>
       <c r="B484" t="n">
-        <v>1977.548742664734</v>
+        <v>2169.586334651876</v>
       </c>
       <c r="C484" t="n">
-        <v>1977548742.664734</v>
+        <v>2169586334.651876</v>
       </c>
     </row>
     <row r="485">
@@ -5768,10 +5768,10 @@
         <v>1.665</v>
       </c>
       <c r="B485" t="n">
-        <v>1977.857308816695</v>
+        <v>2170.854216121525</v>
       </c>
       <c r="C485" t="n">
-        <v>1977857308.816695</v>
+        <v>2170854216.121525</v>
       </c>
     </row>
     <row r="486">
@@ -5779,10 +5779,10 @@
         <v>1.67</v>
       </c>
       <c r="B486" t="n">
-        <v>1978.1649980755</v>
+        <v>2172.119035179265</v>
       </c>
       <c r="C486" t="n">
-        <v>1978164998.0755</v>
+        <v>2172119035.179265</v>
       </c>
     </row>
     <row r="487">
@@ -5790,10 +5790,10 @@
         <v>1.675</v>
       </c>
       <c r="B487" t="n">
-        <v>1978.471815546234</v>
+        <v>2173.380808353593</v>
       </c>
       <c r="C487" t="n">
-        <v>1978471815.546234</v>
+        <v>2173380808.353593</v>
       </c>
     </row>
     <row r="488">
@@ -5801,10 +5801,10 @@
         <v>1.68</v>
       </c>
       <c r="B488" t="n">
-        <v>1978.777766289136</v>
+        <v>2174.639552034806</v>
       </c>
       <c r="C488" t="n">
-        <v>1978777766.289136</v>
+        <v>2174639552.034806</v>
       </c>
     </row>
     <row r="489">
@@ -5812,10 +5812,10 @@
         <v>1.685</v>
       </c>
       <c r="B489" t="n">
-        <v>1979.082855320132</v>
+        <v>2175.895282476562</v>
       </c>
       <c r="C489" t="n">
-        <v>1979082855.320132</v>
+        <v>2175895282.476562</v>
       </c>
     </row>
     <row r="490">
@@ -5823,10 +5823,10 @@
         <v>1.69</v>
       </c>
       <c r="B490" t="n">
-        <v>1979.387087611346</v>
+        <v>2177.148015797429</v>
       </c>
       <c r="C490" t="n">
-        <v>1979387087.611346</v>
+        <v>2177148015.797429</v>
       </c>
     </row>
     <row r="491">
@@ -5834,10 +5834,10 @@
         <v>1.695</v>
       </c>
       <c r="B491" t="n">
-        <v>1979.690468091613</v>
+        <v>2178.397767982389</v>
       </c>
       <c r="C491" t="n">
-        <v>1979690468.091613</v>
+        <v>2178397767.982389</v>
       </c>
     </row>
     <row r="492">
@@ -5845,10 +5845,10 @@
         <v>1.7</v>
       </c>
       <c r="B492" t="n">
-        <v>1979.993001646988</v>
+        <v>2179.644554884349</v>
       </c>
       <c r="C492" t="n">
-        <v>1979993001.646988</v>
+        <v>2179644554.884349</v>
       </c>
     </row>
     <row r="493">
@@ -5856,10 +5856,10 @@
         <v>1.71</v>
       </c>
       <c r="B493" t="n">
-        <v>1980.595547316307</v>
+        <v>2182.129295599324</v>
       </c>
       <c r="C493" t="n">
-        <v>1980595547.316307</v>
+        <v>2182129295.599324</v>
       </c>
     </row>
     <row r="494">
@@ -5867,10 +5867,10 @@
         <v>1.72</v>
       </c>
       <c r="B494" t="n">
-        <v>1981.194762870686</v>
+        <v>2184.602362179558</v>
       </c>
       <c r="C494" t="n">
-        <v>1981194762.870686</v>
+        <v>2184602362.179557</v>
       </c>
     </row>
     <row r="495">
@@ -5878,10 +5878,10 @@
         <v>1.73</v>
       </c>
       <c r="B495" t="n">
-        <v>1981.790685907952</v>
+        <v>2187.063876841299</v>
       </c>
       <c r="C495" t="n">
-        <v>1981790685.907952</v>
+        <v>2187063876.841299</v>
       </c>
     </row>
     <row r="496">
@@ -5889,10 +5889,10 @@
         <v>1.74</v>
       </c>
       <c r="B496" t="n">
-        <v>1982.383353387243</v>
+        <v>2189.513959824178</v>
       </c>
       <c r="C496" t="n">
-        <v>1982383353.387243</v>
+        <v>2189513959.824178</v>
       </c>
     </row>
     <row r="497">
@@ -5900,10 +5900,10 @@
         <v>1.75</v>
       </c>
       <c r="B497" t="n">
-        <v>1982.972801643457</v>
+        <v>2191.952729434319</v>
       </c>
       <c r="C497" t="n">
-        <v>1982972801.643457</v>
+        <v>2191952729.434319</v>
       </c>
     </row>
     <row r="498">
@@ -5911,10 +5911,10 @@
         <v>1.76</v>
       </c>
       <c r="B498" t="n">
-        <v>1983.559066401288</v>
+        <v>2194.380302086275</v>
       </c>
       <c r="C498" t="n">
-        <v>1983559066.401288</v>
+        <v>2194380302.086275</v>
       </c>
     </row>
     <row r="499">
@@ -5922,10 +5922,10 @@
         <v>1.77</v>
       </c>
       <c r="B499" t="n">
-        <v>1984.142182788876</v>
+        <v>2196.796792343816</v>
       </c>
       <c r="C499" t="n">
-        <v>1984142182.788876</v>
+        <v>2196796792.343816</v>
       </c>
     </row>
     <row r="500">
@@ -5933,10 +5933,10 @@
         <v>1.78</v>
       </c>
       <c r="B500" t="n">
-        <v>1984.722185351068</v>
+        <v>2199.202312959618</v>
       </c>
       <c r="C500" t="n">
-        <v>1984722185.351068</v>
+        <v>2199202312.959618</v>
       </c>
     </row>
     <row r="501">
@@ -5944,10 +5944,10 @@
         <v>1.79</v>
       </c>
       <c r="B501" t="n">
-        <v>1985.299108062322</v>
+        <v>2201.596974913881</v>
       </c>
       <c r="C501" t="n">
-        <v>1985299108.062322</v>
+        <v>2201596974.913881</v>
       </c>
     </row>
     <row r="502">
@@ -5955,10 +5955,10 @@
         <v>1.8</v>
       </c>
       <c r="B502" t="n">
-        <v>1985.872984339243</v>
+        <v>2203.980887451914</v>
       </c>
       <c r="C502" t="n">
-        <v>1985872984.339242</v>
+        <v>2203980887.451914</v>
       </c>
     </row>
     <row r="503">
@@ -5966,10 +5966,10 @@
         <v>1.81</v>
       </c>
       <c r="B503" t="n">
-        <v>1986.443847052785</v>
+        <v>2206.354158120715</v>
       </c>
       <c r="C503" t="n">
-        <v>1986443847.052785</v>
+        <v>2206354158.120715</v>
       </c>
     </row>
     <row r="504">
@@ -5977,10 +5977,10 @@
         <v>1.82</v>
       </c>
       <c r="B504" t="n">
-        <v>1987.011728540121</v>
+        <v>2208.716892804588</v>
       </c>
       <c r="C504" t="n">
-        <v>1987011728.540121</v>
+        <v>2208716892.804587</v>
       </c>
     </row>
     <row r="505">
@@ -5988,10 +5988,10 @@
         <v>1.83</v>
       </c>
       <c r="B505" t="n">
-        <v>1987.576660616179</v>
+        <v>2211.069195759819</v>
       </c>
       <c r="C505" t="n">
-        <v>1987576660.616179</v>
+        <v>2211069195.759819</v>
       </c>
     </row>
     <row r="506">
@@ -5999,10 +5999,10 @@
         <v>1.84</v>
       </c>
       <c r="B506" t="n">
-        <v>1988.138674584882</v>
+        <v>2213.411169648446</v>
       </c>
       <c r="C506" t="n">
-        <v>1988138674.584882</v>
+        <v>2213411169.648446</v>
       </c>
     </row>
     <row r="507">
@@ -6010,10 +6010,10 @@
         <v>1.85</v>
       </c>
       <c r="B507" t="n">
-        <v>1988.69780125008</v>
+        <v>2215.742915571145</v>
       </c>
       <c r="C507" t="n">
-        <v>1988697801.25008</v>
+        <v>2215742915.571145</v>
       </c>
     </row>
     <row r="508">
@@ -6021,10 +6021,10 @@
         <v>1.86</v>
       </c>
       <c r="B508" t="n">
-        <v>1989.254070926189</v>
+        <v>2218.064533099267</v>
       </c>
       <c r="C508" t="n">
-        <v>1989254070.926189</v>
+        <v>2218064533.099267</v>
       </c>
     </row>
     <row r="509">
@@ -6032,10 +6032,10 @@
         <v>1.87</v>
       </c>
       <c r="B509" t="n">
-        <v>1989.807513448547</v>
+        <v>2220.37612030605</v>
       </c>
       <c r="C509" t="n">
-        <v>1989807513.448547</v>
+        <v>2220376120.30605</v>
       </c>
     </row>
     <row r="510">
@@ -6043,10 +6043,10 @@
         <v>1.88</v>
       </c>
       <c r="B510" t="n">
-        <v>1990.358158183506</v>
+        <v>2222.677773797031</v>
       </c>
       <c r="C510" t="n">
-        <v>1990358158.183506</v>
+        <v>2222677773.79703</v>
       </c>
     </row>
     <row r="511">
@@ -6054,10 +6054,10 @@
         <v>1.89</v>
       </c>
       <c r="B511" t="n">
-        <v>1990.906034038245</v>
+        <v>2224.969588739675</v>
       </c>
       <c r="C511" t="n">
-        <v>1990906034.038245</v>
+        <v>2224969588.739675</v>
       </c>
     </row>
     <row r="512">
@@ -6065,10 +6065,10 @@
         <v>1.9</v>
       </c>
       <c r="B512" t="n">
-        <v>1991.451169470339</v>
+        <v>2227.251658892271</v>
       </c>
       <c r="C512" t="n">
-        <v>1991451169.47034</v>
+        <v>2227251658.892271</v>
       </c>
     </row>
     <row r="513">
@@ -6076,10 +6076,10 @@
         <v>1.91</v>
       </c>
       <c r="B513" t="n">
-        <v>1991.993592497074</v>
+        <v>2229.524076632073</v>
       </c>
       <c r="C513" t="n">
-        <v>1991993592.497074</v>
+        <v>2229524076.632072</v>
       </c>
     </row>
     <row r="514">
@@ -6087,10 +6087,10 @@
         <v>1.92</v>
       </c>
       <c r="B514" t="n">
-        <v>1992.533330704521</v>
+        <v>2231.786932982758</v>
       </c>
       <c r="C514" t="n">
-        <v>1992533330.704521</v>
+        <v>2231786932.982758</v>
       </c>
     </row>
     <row r="515">
@@ -6098,10 +6098,10 @@
         <v>1.93</v>
       </c>
       <c r="B515" t="n">
-        <v>1993.070411256377</v>
+        <v>2234.040317641186</v>
       </c>
       <c r="C515" t="n">
-        <v>1993070411.256377</v>
+        <v>2234040317.641186</v>
       </c>
     </row>
     <row r="516">
@@ -6109,10 +6109,10 @@
         <v>1.94</v>
       </c>
       <c r="B516" t="n">
-        <v>1993.604860902585</v>
+        <v>2236.284319003499</v>
       </c>
       <c r="C516" t="n">
-        <v>1993604860.902585</v>
+        <v>2236284319.003499</v>
       </c>
     </row>
     <row r="517">
@@ -6120,10 +6120,10 @@
         <v>1.95</v>
       </c>
       <c r="B517" t="n">
-        <v>1994.136705987724</v>
+        <v>2238.519024190573</v>
       </c>
       <c r="C517" t="n">
-        <v>1994136705.987724</v>
+        <v>2238519024.190573</v>
       </c>
     </row>
     <row r="518">
@@ -6131,10 +6131,10 @@
         <v>1.96</v>
       </c>
       <c r="B518" t="n">
-        <v>1994.665972459202</v>
+        <v>2240.744519072848</v>
       </c>
       <c r="C518" t="n">
-        <v>1994665972.459202</v>
+        <v>2240744519.072848</v>
       </c>
     </row>
     <row r="519">
@@ -6142,10 +6142,10 @@
         <v>1.97</v>
       </c>
       <c r="B519" t="n">
-        <v>1995.192685875227</v>
+        <v>2242.960888294544</v>
       </c>
       <c r="C519" t="n">
-        <v>1995192685.875227</v>
+        <v>2242960888.294545</v>
       </c>
     </row>
     <row r="520">
@@ -6153,10 +6153,10 @@
         <v>1.98</v>
       </c>
       <c r="B520" t="n">
-        <v>1995.716871412586</v>
+        <v>2245.168215297301</v>
       </c>
       <c r="C520" t="n">
-        <v>1995716871.412586</v>
+        <v>2245168215.297301</v>
       </c>
     </row>
     <row r="521">
@@ -6164,10 +6164,10 @@
         <v>1.99</v>
       </c>
       <c r="B521" t="n">
-        <v>1996.238553874236</v>
+        <v>2247.366582343226</v>
       </c>
       <c r="C521" t="n">
-        <v>1996238553.874236</v>
+        <v>2247366582.343226</v>
       </c>
     </row>
     <row r="522">
@@ -6175,10 +6175,10 @@
         <v>2</v>
       </c>
       <c r="B522" t="n">
-        <v>1996.757757696691</v>
+        <v>2249.556070537406</v>
       </c>
       <c r="C522" t="n">
-        <v>1996757757.696692</v>
+        <v>2249556070.537405</v>
       </c>
     </row>
     <row r="523">
@@ -6186,10 +6186,10 @@
         <v>2.02</v>
       </c>
       <c r="B523" t="n">
-        <v>1997.788825381</v>
+        <v>2253.908729137011</v>
       </c>
       <c r="C523" t="n">
-        <v>1997788825.381</v>
+        <v>2253908729.137011</v>
       </c>
     </row>
     <row r="524">
@@ -6197,10 +6197,10 @@
         <v>2.04</v>
       </c>
       <c r="B524" t="n">
-        <v>1998.810262898623</v>
+        <v>2258.226817617979</v>
       </c>
       <c r="C524" t="n">
-        <v>1998810262.898623</v>
+        <v>2258226817.617979</v>
       </c>
     </row>
     <row r="525">
@@ -6208,10 +6208,10 @@
         <v>2.06</v>
       </c>
       <c r="B525" t="n">
-        <v>1999.822253263385</v>
+        <v>2262.510945342296</v>
       </c>
       <c r="C525" t="n">
-        <v>1999822253.263385</v>
+        <v>2262510945.342296</v>
       </c>
     </row>
     <row r="526">
@@ -6219,10 +6219,10 @@
         <v>2.08</v>
       </c>
       <c r="B526" t="n">
-        <v>2000.824974276534</v>
+        <v>2266.761705143428</v>
       </c>
       <c r="C526" t="n">
-        <v>2000824974.276534</v>
+        <v>2266761705.143428</v>
       </c>
     </row>
     <row r="527">
@@ -6230,10 +6230,10 @@
         <v>2.1</v>
       </c>
       <c r="B527" t="n">
-        <v>2001.818598723664</v>
+        <v>2270.979673928618</v>
       </c>
       <c r="C527" t="n">
-        <v>2001818598.723664</v>
+        <v>2270979673.928618</v>
       </c>
     </row>
     <row r="528">
@@ -6241,10 +6241,10 @@
         <v>2.12</v>
       </c>
       <c r="B528" t="n">
-        <v>2002.803294562402</v>
+        <v>2275.165413253737</v>
       </c>
       <c r="C528" t="n">
-        <v>2002803294.562402</v>
+        <v>2275165413.253737</v>
       </c>
     </row>
     <row r="529">
@@ -6252,10 +6252,10 @@
         <v>2.14</v>
       </c>
       <c r="B529" t="n">
-        <v>2003.779225101375</v>
+        <v>2279.319469872175</v>
       </c>
       <c r="C529" t="n">
-        <v>2003779225.101375</v>
+        <v>2279319469.872175</v>
       </c>
     </row>
     <row r="530">
@@ -6263,10 +6263,10 @@
         <v>2.16</v>
       </c>
       <c r="B530" t="n">
-        <v>2004.746549170939</v>
+        <v>2283.442376259181</v>
       </c>
       <c r="C530" t="n">
-        <v>2004746549.170939</v>
+        <v>2283442376.259181</v>
       </c>
     </row>
     <row r="531">
@@ -6274,10 +6274,10 @@
         <v>2.18</v>
       </c>
       <c r="B531" t="n">
-        <v>2005.705421286127</v>
+        <v>2287.534651112971</v>
       </c>
       <c r="C531" t="n">
-        <v>2005705421.286127</v>
+        <v>2287534651.11297</v>
       </c>
     </row>
     <row r="532">
@@ -6285,10 +6285,10 @@
         <v>2.2</v>
       </c>
       <c r="B532" t="n">
-        <v>2006.655991802224</v>
+        <v>2291.596799833816</v>
       </c>
       <c r="C532" t="n">
-        <v>2006655991.802224</v>
+        <v>2291596799.833816</v>
       </c>
     </row>
     <row r="533">
@@ -6296,10 +6296,10 @@
         <v>2.22</v>
       </c>
       <c r="B533" t="n">
-        <v>2007.598407063391</v>
+        <v>2295.629314982303</v>
       </c>
       <c r="C533" t="n">
-        <v>2007598407.063391</v>
+        <v>2295629314.982303</v>
       </c>
     </row>
     <row r="534">
@@ -6307,10 +6307,10 @@
         <v>2.24</v>
       </c>
       <c r="B534" t="n">
-        <v>2008.532809544678</v>
+        <v>2299.632676717813</v>
       </c>
       <c r="C534" t="n">
-        <v>2008532809.544678</v>
+        <v>2299632676.717813</v>
       </c>
     </row>
     <row r="535">
@@ -6318,10 +6318,10 @@
         <v>2.26</v>
       </c>
       <c r="B535" t="n">
-        <v>2009.459337987805</v>
+        <v>2303.607353218274</v>
       </c>
       <c r="C535" t="n">
-        <v>2009459337.987805</v>
+        <v>2303607353.218274</v>
       </c>
     </row>
     <row r="536">
@@ -6329,10 +6329,10 @@
         <v>2.28</v>
       </c>
       <c r="B536" t="n">
-        <v>2010.378127531011</v>
+        <v>2307.553801082117</v>
       </c>
       <c r="C536" t="n">
-        <v>2010378127.531011</v>
+        <v>2307553801.082117</v>
       </c>
     </row>
     <row r="537">
@@ -6340,10 +6340,10 @@
         <v>2.3</v>
       </c>
       <c r="B537" t="n">
-        <v>2011.289309833301</v>
+        <v>2311.472465713368</v>
       </c>
       <c r="C537" t="n">
-        <v>2011289309.833301</v>
+        <v>2311472465.713368</v>
       </c>
     </row>
     <row r="538">
@@ -6351,10 +6351,10 @@
         <v>2.32</v>
       </c>
       <c r="B538" t="n">
-        <v>2012.193013193371</v>
+        <v>2315.363781690693</v>
       </c>
       <c r="C538" t="n">
-        <v>2012193013.193371</v>
+        <v>2315363781.690693</v>
       </c>
     </row>
     <row r="539">
@@ -6362,10 +6362,10 @@
         <v>2.34</v>
       </c>
       <c r="B539" t="n">
-        <v>2013.089362663475</v>
+        <v>2319.228173121223</v>
       </c>
       <c r="C539" t="n">
-        <v>2013089362.663475</v>
+        <v>2319228173.121223</v>
       </c>
     </row>
     <row r="540">
@@ -6373,10 +6373,10 @@
         <v>2.36</v>
       </c>
       <c r="B540" t="n">
-        <v>2013.978480158501</v>
+        <v>2323.066053979891</v>
       </c>
       <c r="C540" t="n">
-        <v>2013978480.158501</v>
+        <v>2323066053.97989</v>
       </c>
     </row>
     <row r="541">
@@ -6384,10 +6384,10 @@
         <v>2.38</v>
       </c>
       <c r="B541" t="n">
-        <v>2014.860484560495</v>
+        <v>2326.877828435007</v>
       </c>
       <c r="C541" t="n">
-        <v>2014860484.560495</v>
+        <v>2326877828.435007</v>
       </c>
     </row>
     <row r="542">
@@ -6395,10 +6395,10 @@
         <v>2.4</v>
       </c>
       <c r="B542" t="n">
-        <v>2015.735491818857</v>
+        <v>2330.663891160731</v>
       </c>
       <c r="C542" t="n">
-        <v>2015735491.818857</v>
+        <v>2330663891.16073</v>
       </c>
     </row>
     <row r="543">
@@ -6406,10 +6406,10 @@
         <v>2.42</v>
       </c>
       <c r="B543" t="n">
-        <v>2016.603615046415</v>
+        <v>2334.424627637072</v>
       </c>
       <c r="C543" t="n">
-        <v>2016603615.046415</v>
+        <v>2334424627.637072</v>
       </c>
     </row>
     <row r="544">
@@ -6417,10 +6417,10 @@
         <v>2.44</v>
       </c>
       <c r="B544" t="n">
-        <v>2017.464964611597</v>
+        <v>2338.160414438028</v>
       </c>
       <c r="C544" t="n">
-        <v>2017464964.611597</v>
+        <v>2338160414.438027</v>
       </c>
     </row>
     <row r="545">
@@ -6428,10 +6428,10 @@
         <v>2.46</v>
       </c>
       <c r="B545" t="n">
-        <v>2018.319648226875</v>
+        <v>2341.871619508399</v>
       </c>
       <c r="C545" t="n">
-        <v>2018319648.226875</v>
+        <v>2341871619.508399</v>
       </c>
     </row>
     <row r="546">
@@ -6439,10 +6439,10 @@
         <v>2.48</v>
       </c>
       <c r="B546" t="n">
-        <v>2019.167771033666</v>
+        <v>2345.55860242984</v>
       </c>
       <c r="C546" t="n">
-        <v>2019167771.033666</v>
+        <v>2345558602.42984</v>
       </c>
     </row>
     <row r="547">
@@ -6450,10 +6450,10 @@
         <v>2.5</v>
       </c>
       <c r="B547" t="n">
-        <v>2020.00943568386</v>
+        <v>2349.221714676627</v>
       </c>
       <c r="C547" t="n">
-        <v>2020009435.68386</v>
+        <v>2349221714.676628</v>
       </c>
     </row>
     <row r="548">
@@ -6461,10 +6461,10 @@
         <v>2.52</v>
       </c>
       <c r="B548" t="n">
-        <v>2020.844742418132</v>
+        <v>2352.861299861631</v>
       </c>
       <c r="C548" t="n">
-        <v>2020844742.418132</v>
+        <v>2352861299.861631</v>
       </c>
     </row>
     <row r="549">
@@ -6472,10 +6472,10 @@
         <v>2.54</v>
       </c>
       <c r="B549" t="n">
-        <v>2021.673789141191</v>
+        <v>2356.477693972937</v>
       </c>
       <c r="C549" t="n">
-        <v>2021673789.141191</v>
+        <v>2356477693.972937</v>
       </c>
     </row>
     <row r="550">
@@ -6483,10 +6483,10 @@
         <v>2.56</v>
       </c>
       <c r="B550" t="n">
-        <v>2022.496671494115</v>
+        <v>2360.071225601548</v>
       </c>
       <c r="C550" t="n">
-        <v>2022496671.494115</v>
+        <v>2360071225.601548</v>
       </c>
     </row>
     <row r="551">
@@ -6494,10 +6494,10 @@
         <v>2.58</v>
       </c>
       <c r="B551" t="n">
-        <v>2023.313482923888</v>
+        <v>2363.642216160562</v>
       </c>
       <c r="C551" t="n">
-        <v>2023313482.923888</v>
+        <v>2363642216.160562</v>
       </c>
     </row>
     <row r="552">
@@ -6505,10 +6505,10 @@
         <v>2.6</v>
       </c>
       <c r="B552" t="n">
-        <v>2024.124314750295</v>
+        <v>2367.190980096214</v>
       </c>
       <c r="C552" t="n">
-        <v>2024124314.750295</v>
+        <v>2367190980.096214</v>
       </c>
     </row>
     <row r="553">
@@ -6516,10 +6516,10 @@
         <v>2.62</v>
       </c>
       <c r="B553" t="n">
-        <v>2024.929256230268</v>
+        <v>2370.717825091144</v>
       </c>
       <c r="C553" t="n">
-        <v>2024929256.230268</v>
+        <v>2370717825.091144</v>
       </c>
     </row>
     <row r="554">
@@ -6527,10 +6527,10 @@
         <v>2.64</v>
       </c>
       <c r="B554" t="n">
-        <v>2025.72839461982</v>
+        <v>2374.22305226023</v>
       </c>
       <c r="C554" t="n">
-        <v>2025728394.61982</v>
+        <v>2374223052.26023</v>
       </c>
     </row>
     <row r="555">
@@ -6538,10 +6538,10 @@
         <v>2.66</v>
       </c>
       <c r="B555" t="n">
-        <v>2026.521815233663</v>
+        <v>2377.706956339317</v>
       </c>
       <c r="C555" t="n">
-        <v>2026521815.233663</v>
+        <v>2377706956.339317</v>
       </c>
     </row>
     <row r="556">
@@ -6549,10 +6549,10 @@
         <v>2.68</v>
       </c>
       <c r="B556" t="n">
-        <v>2027.309601502612</v>
+        <v>2381.169825867152</v>
       </c>
       <c r="C556" t="n">
-        <v>2027309601.502612</v>
+        <v>2381169825.867152</v>
       </c>
     </row>
     <row r="557">
@@ -6560,10 +6560,10 @@
         <v>2.7</v>
       </c>
       <c r="B557" t="n">
-        <v>2028.091835028885</v>
+        <v>2384.611943360804</v>
       </c>
       <c r="C557" t="n">
-        <v>2028091835.028886</v>
+        <v>2384611943.360804</v>
       </c>
     </row>
     <row r="558">
@@ -6571,10 +6571,10 @@
         <v>2.72</v>
       </c>
       <c r="B558" t="n">
-        <v>2028.868595639383</v>
+        <v>2388.033585484876</v>
       </c>
       <c r="C558" t="n">
-        <v>2028868595.639383</v>
+        <v>2388033585.484876</v>
       </c>
     </row>
     <row r="559">
@@ -6582,10 +6582,10 @@
         <v>2.74</v>
       </c>
       <c r="B559" t="n">
-        <v>2029.639961437026</v>
+        <v>2391.435023214743</v>
       </c>
       <c r="C559" t="n">
-        <v>2029639961.437026</v>
+        <v>2391435023.214743</v>
       </c>
     </row>
     <row r="560">
@@ -6593,10 +6593,10 @@
         <v>2.76</v>
       </c>
       <c r="B560" t="n">
-        <v>2030.406008850262</v>
+        <v>2394.816521994091</v>
       </c>
       <c r="C560" t="n">
-        <v>2030406008.850262</v>
+        <v>2394816521.994091</v>
       </c>
     </row>
     <row r="561">
@@ -6604,10 +6604,10 @@
         <v>2.78</v>
       </c>
       <c r="B561" t="n">
-        <v>2031.166812680793</v>
+        <v>2398.178341886981</v>
       </c>
       <c r="C561" t="n">
-        <v>2031166812.680793</v>
+        <v>2398178341.886981</v>
       </c>
     </row>
     <row r="562">
@@ -6615,10 +6615,10 @@
         <v>2.8</v>
       </c>
       <c r="B562" t="n">
-        <v>2031.922446149609</v>
+        <v>2401.520737724677</v>
       </c>
       <c r="C562" t="n">
-        <v>2031922446.149609</v>
+        <v>2401520737.724677</v>
       </c>
     </row>
     <row r="563">
@@ -6626,10 +6626,10 @@
         <v>2.82</v>
       </c>
       <c r="B563" t="n">
-        <v>2032.672980941408</v>
+        <v>2404.843959247446</v>
       </c>
       <c r="C563" t="n">
-        <v>2032672980.941408</v>
+        <v>2404843959.247447</v>
       </c>
     </row>
     <row r="564">
@@ -6637,10 +6637,10 @@
         <v>2.84</v>
       </c>
       <c r="B564" t="n">
-        <v>2033.418487247458</v>
+        <v>2408.148251241545</v>
       </c>
       <c r="C564" t="n">
-        <v>2033418487.247458</v>
+        <v>2408148251.241545</v>
       </c>
     </row>
     <row r="565">
@@ -6648,10 +6648,10 @@
         <v>2.86</v>
       </c>
       <c r="B565" t="n">
-        <v>2034.159033806972</v>
+        <v>2411.433853671576</v>
       </c>
       <c r="C565" t="n">
-        <v>2034159033.806972</v>
+        <v>2411433853.671576</v>
       </c>
     </row>
     <row r="566">
@@ -6659,10 +6659,10 @@
         <v>2.88</v>
       </c>
       <c r="B566" t="n">
-        <v>2034.894687947053</v>
+        <v>2414.701001808423</v>
       </c>
       <c r="C566" t="n">
-        <v>2034894687.947053</v>
+        <v>2414701001.808423</v>
       </c>
     </row>
     <row r="567">
@@ -6670,10 +6670,10 @@
         <v>2.9</v>
       </c>
       <c r="B567" t="n">
-        <v>2035.625515621277</v>
+        <v>2417.949926352912</v>
       </c>
       <c r="C567" t="n">
-        <v>2035625515.621277</v>
+        <v>2417949926.352912</v>
       </c>
     </row>
     <row r="568">
@@ -6681,10 +6681,10 @@
         <v>2.92</v>
       </c>
       <c r="B568" t="n">
-        <v>2036.35158144696</v>
+        <v>2421.180853555407</v>
       </c>
       <c r="C568" t="n">
-        <v>2036351581.44696</v>
+        <v>2421180853.555407</v>
       </c>
     </row>
     <row r="569">
@@ -6692,10 +6692,10 @@
         <v>2.94</v>
       </c>
       <c r="B569" t="n">
-        <v>2037.072948741168</v>
+        <v>2424.394005331459</v>
       </c>
       <c r="C569" t="n">
-        <v>2037072948.741168</v>
+        <v>2424394005.331459</v>
       </c>
     </row>
     <row r="570">
@@ -6703,10 +6703,10 @@
         <v>2.96</v>
       </c>
       <c r="B570" t="n">
-        <v>2037.789679555519</v>
+        <v>2427.589599373703</v>
       </c>
       <c r="C570" t="n">
-        <v>2037789679.555519</v>
+        <v>2427589599.373703</v>
       </c>
     </row>
     <row r="571">
@@ -6714,10 +6714,10 @@
         <v>2.98</v>
       </c>
       <c r="B571" t="n">
-        <v>2038.501834709824</v>
+        <v>2430.767849260125</v>
       </c>
       <c r="C571" t="n">
-        <v>2038501834.709824</v>
+        <v>2430767849.260125</v>
       </c>
     </row>
     <row r="572">
@@ -6725,10 +6725,10 @@
         <v>3</v>
       </c>
       <c r="B572" t="n">
-        <v>2039.209473824614</v>
+        <v>2433.928964558846</v>
       </c>
       <c r="C572" t="n">
-        <v>2039209473.824614</v>
+        <v>2433928964.558846</v>
       </c>
     </row>
   </sheetData>
